--- a/master.xlsx
+++ b/master.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashtonkirtley/Documents/Div-idy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a170150\Documents\#-Development\Personal\Fun\My Web Company\div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80550C-3A8F-A340-8977-3A6AE284D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E52561D-6F28-4A8F-A2C7-3522A3301BDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="5" xr2:uid="{6803009B-60F9-444B-BB70-2C5852A57BCE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="4" xr2:uid="{6803009B-60F9-444B-BB70-2C5852A57BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
     <sheet name="Category Pages" sheetId="2" r:id="rId2"/>
     <sheet name="python (Man Power)" sheetId="6" r:id="rId3"/>
     <sheet name="python" sheetId="5" r:id="rId4"/>
-    <sheet name="Product Pages" sheetId="3" r:id="rId5"/>
+    <sheet name="Product Pages Scripts" sheetId="3" r:id="rId5"/>
     <sheet name="Budget" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -25,30 +25,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -63,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="671">
   <si>
     <t>Amazon_Devices_and_Accessories</t>
   </si>
@@ -1977,6 +1966,105 @@
   </si>
   <si>
     <t>https://www.amazon.com/Texas-Instruments-Graphing-Calculator-Renewed/dp/B07QLJQB8P?th=1&amp;linkCode=ll1&amp;tag=dividy-20&amp;linkId=725e23162fc43e37a28e6a554ed891e1&amp;language=en_US&amp;ref_=as_li_ss_tl</t>
+  </si>
+  <si>
+    <t>// Create an object to store the desired information</t>
+  </si>
+  <si>
+    <t>let productData = {};</t>
+  </si>
+  <si>
+    <t>let featureBulletsText = featureBulletsElement ? featureBulletsElement.textContent.trim() : 'No product details found';</t>
+  </si>
+  <si>
+    <t>// Assign the product details to the object</t>
+  </si>
+  <si>
+    <t>productData['productDetails'] = featureBulletsText;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // Assign the tracking link to the object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            productData['trackingLink'] = fullLinkTextarea.value;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            productData['trackingLink'] = 'Tracking link not found';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Log the final object to the console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        console.log(productData);</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "productDetails": "About this item                   This phone is unlocked and compatible with any carrier of choice on GSM and CDMA networks (e.g. AT&amp;T, T-Mobile, Sprint, Verizon, US Cellular, Cricket, Metro, Tracfone, Mint Mobile, etc.).     Tested for battery health and guaranteed to have a minimum battery capacity of 80%.     Successfully passed a full diagnostic test which ensures like-new functionality and removal of any prior-user personal information.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "customerReviews": "&lt;img src=\"https://c.media-amazon.com/images/S/amazon-avatars-global/default.png\"/&gt;Gray5.0 out of 5 stars\n\n\n\n\n\n\n\n  \n  \n    So Far, So Good\n  \nReviewed in the United States on August 22, 2024Size: 64GBColor: BlackService Provider: UnlockedProduct grade: RenewedVerified Purchase\n\n\n\n\n\n\n\n  \n  \n    The only complaint so far is that the directions for set-up are very minimal and actually wrong. Once I used online instructions, I had no problem setting up the phone.Phone works perfectly so far and appears to be brand new. It came with a cord and charger.I choose this phone because it is has high ratings for good video quality, decent sound quality and good battery life. It’s a nice size and looks good. Very reasonably priced!!\n  \nRead more\n  8 people found this helpful\n    \n          \n              \n                  Helpful\n              \n          \n      Sending feedback...Thank you for your feedback.Sorry, we failed to record your vote. Please try again\n        Report\n  &lt;img src=\"https://c.media-amazon.com/images/S/amazon-avatars-global/31610bf7-4102-4e06-88cf-4019c6b68068._CR0%2C0%2C500%2C500_SX460_.jpg\"/&gt;Ms D5.0 out of 5 stars\n\n\n\n\n\n\n\n  \n  \n    Apple iPhone 11 Review: A Reliable Backup That Feels Like New\n  \nReviewed in the United States on February 20, 2024Size: 64GBColor: BlackService Provider: UnlockedProduct grade: RenewedVerified Purchase\n\n\n\n\n\n\n\n  \n  \n    Update:  I'm back with an update on our journey with the iPhone 11, and let me tell you, it's been quite the rollercoaster. Initially, I bought one for my daughter from a different seller, and it was, to put it mildly, a bit of a disaster. We had issues left and right – Face ID not working, the phone overheating – you name it. So, we returned it, feeling a bit skeptical about the whole refurbished scene.But here's where the plot twists: we decided to give it another go, this time purchasing from the Amazon resellers store, specifically from a shop called Hybrid IT. And oh boy, what a difference! The iPhone we received this time around was nothing short of impeccable. It arrived with all the essentials – a charger, a charging cable, and even a SIM card tool, all neatly packed. The phone itself? It could've fooled me for brand new.This experience really hammered home the lesson that when it comes to refurbished goods, the \"who\" is just as crucial as the \"what.\" The quality and condition of the product can vary wildly depending on the seller. Hybrid IT sent out an excellent product that exceeded our expectations in every way.For those of you wary about diving into the world of refurbished electronics, let this be a testament. With the right seller, you can get your hands on a device that feels brand new, without the hefty price tag. We're over the moon with our iPhone 11, and I'll be sure to keep you all posted if anything changes. But for now, it seems like we've struck gold.--------------------I recently found myself in need of a quick replacement after my daughter accidentally broke her phone. The Apple iPhone 11, 64GB in black, seemed like a promising choice, primarily because we needed something that could be set up swiftly and would perform seamlessly as a backup.Out of the box, the iPhone 11 felt like a brand-new device despite being a model released a few years back. The sleek black finish and the familiar design immediately caught my eye, reassuring me that this choice would not disappoint.Setting up the iPhone 11 was mostly straightforward, especially with the unlocked version making it easy to switch from the old device. The transfer of data and settings from the previous iPhone was seamless, thanks to Apple's ecosystem. However, we hit a slight snag with the Face ID setup - it took a bit longer than expected to get it working properly. Despite this hiccup, once configured, Face ID has been working flawlessly.The iPhone 11's performance has been impressive. The touch screen is responsive, making navigation and typing a breeze. Wi-Fi connectivity is fast, ensuring that browsing and app downloads are efficient. Although it's not the latest model, it handles everyday tasks with ease, from streaming video content to gaming, without any noticeable lag.The main issue we encountered was the initial difficulty in setting up Face ID. It required a few attempts to configure, which was a minor inconvenience in an otherwise smooth setup process. After overcoming this challenge, the phone has been working perfectly.Overall, this refurbished Apple iPhone 11 has proven to be a reliable and efficient backup phone. Its ease of setup, fast Wi-Fi, and responsive touch screen make it feel like a new device. The hiccup with Face ID setup was a small obstacle that, once overcome, didn't detract from the overall positive experience. I would recommend the iPhone 11 to anyone in need of a quick replacement or a dependable backup device\n  \nRead more\n  123 people found this helpful\n    \n          \n              \n                  Helpful\n              \n          \n      Sending feedback...Thank you for your feedback.Sorry, we failed to record your vote. Please try again\n        Report\n  &lt;img src=\"https://c.media-amazon.com/images/S/amazon-avatars-global/default.png\"/&gt;Amus575.0 out of 5 stars\n\n\n\n\n\n\n\n  \n  \n    Great product\n  \nReviewed in the United States on August 9, 2024Size: 128GBColor: BlackService Provider: UnlockedProduct grade: RenewedVerified Purchase\n\n\n\n\n\n\n\n  \n  \n    Though I was initially skeptical about buying a “renewed phone,” I decided for $250 it is worth the risk. I have a history of breaking phones and I am not easy on them. After breaking my iPhone 13 to the point where I was cutting myself on the glass, I decided to buy this 11. I prefer the 11 over the 13.I was not sure how it would go transferring 125gb of data. I did the quick start feature and within an hour my new phone was exactly like my old one.The phone came to me in great shape. The back and edges had no issues, and the screen has 2 small smudges or shades of scratches. These do not bother me one bit because it is worlds better than my old one.This phone has a 94% battery life, and everything seems to work well. I ran a diagnostic app and every feature works great on this phone. And SIM card easily swapped over even though my 13 had 5g compatibility and this one does not.Either way, I would say to definitley go with this phone. There’s no point in buying the new $1200 every year. Buy a used one like this one that is identical to the new one.\n  \nRead more\n  11 people found this helpful\n    \n          \n              \n                  Helpful\n              \n          \n      Sending feedback...Thank you for your feedback.Sorry, we failed to record your vote. Please try again\n        Report\n  &lt;img src=\"https://c.media-amazon.com/images/S/amazon-avatars-global/7101f05d-8dae-41e1-974b-4a9efeb60ee9._CR109%2C0%2C281%2C281_SX460_.jpg\"/&gt;Jessic_Bell4.0 out of 5 stars\n\n\n\n\n\n\n\n  \n  \n    would never know it was used!\n  \nReviewed in the United States on July 29, 2024Size: 256GBColor: BlackService Provider: UnlockedProduct grade: RenewedVerified Purchase\n\n\n\n\n\n\n\n  \n  \n    I recently purchased the iPhone 11 256GB Renewed, and overall, I’m quite satisfied with my purchase. Here are my thoughts:Pros:Great Value: For a renewed phone, it offers excellent value. The price is significantly lower than a brand-new model, yet it performs almost as well.Battery Health: The battery health was at 90% when I received it, which is impressive for a renewed device.Camera Quality: The camera is fantastic, capturing clear and vibrant photos. It’s perfect for everyday photography.Storage Capacity: With 256GB of storage, I have plenty of space for apps, photos, and videos without worrying about running out of space.Cons:Minor Scratches: There were a few minor scratches on the back, but nothing too noticeable or affecting functionality.Accessories: The phone came with a generic charger and cable, which work fine but aren’t as high-quality as the original Apple accessories.Echo Issue: Occasionally, there’s a slight echo during calls, but it’s not a deal-breaker for me.Overall: If you’re looking for a budget-friendly iPhone with ample storage and great performance, the iPhone 11 256GB Renewed is a solid choice. Just be prepared for a few minor imperfections that come with a renewed product.\n  \nRead more\n  17 people found this helpful\n    \n          \n              \n                  Helpful\n              \n          \n      Sending feedback...Thank you for your feedback.Sorry, we failed to record your vote. Please try again\n        Report\n  &lt;img src=\"https://c.media-amazon.com/images/S/amazon-avatars-global/default.png\"/&gt;Isaiah5.0 out of 5 stars\n\n\n\n\n\n\n\n  \n  \n    Phone is great, customer service was better!\n  \nReviewed in the United States on July 18, 2024Size: 128GBColor: BlackService Provider: UnlockedProduct grade: RenewedVerified Purchase\n\n\n\n\n\n\n\n  \n  \n    I needed a new phone, ASAP. Thankfully, Amazon had a great selection of refurbished devices to choose from. The iPhone 11 stuck out to me for its affordability and somewhat recent release date. Upon arrival, the phone had near 0 scratches, and was factory unlocked as promised. HOWEVER, the battery was at 71% (!!!!) which made me freak out! I immediately contacted their support on a Saturday afternoon, and they gave me the option of taking it to the Apple Store for a battery replacement— free of charge. I was honestly surprised that they were willing to do so, and in a few days, every dime I spent on the repair was sent through an Amazon Refund back on my card. Now a few months later, the phone is just what I needed and even better with a 100% health battery!(P.S- the seller was MOBILESUPPLY. They’re awesome!)\n  \nRead more\n  23 people found this helpful\n    \n          \n              \n                  Helpful\n              \n          \n      Sending feedback...Thank you for your feedback.Sorry, we failed to record your vote. Please try again\n        Report",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "trackingLink": "https://www.amazon.com/Apple-iPhone-11-64GB-Black/dp/B07ZPKN6YR?th=1&amp;linkCode=ll1&amp;tag=dividy-20&amp;linkId=3673a497032abb03b699e857e3812c69&amp;language=en_US&amp;ref_=as_li_ss_tl"</t>
+  </si>
+  <si>
+    <t>// Function to scroll the entire page</t>
+  </si>
+  <si>
+    <t>function scrollPageToBottom() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return new Promise((resolve) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        window.scrollTo({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            top: document.body.scrollHeight,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            behavior: 'smooth'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Wait for the scrolling to complete and for additional content to load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        setTimeout(() =&gt; resolve(), 2000); // Adjust the timeout as needed</t>
+  </si>
+  <si>
+    <t>// Click the &lt;a&gt; element within the &lt;li&gt; with id "amzn-ss-text-link"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setTimeout(async () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Scroll the entire page to the bottom and wait for content to load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        await scrollPageToBottom();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Retrieve the text content of the reviews section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        let reviewListText = reviewListElement ? reviewListElement.textContent.trim() : 'No customer reviews found';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Assign the customer reviews to the object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        productData['customerReviews'] = reviewListText;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Log the text content of the textarea with the ID "amzn-ss-text-fulllink-textarea"</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +2075,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2022,7 +2110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2032,6 +2120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,7 +2143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2057,6 +2151,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2398,9 +2494,9 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="9" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" ht="18">
       <c r="C9" t="s">
         <v>78</v>
       </c>
@@ -2411,7 +2507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" ht="18">
       <c r="C10" t="s">
         <v>79</v>
       </c>
@@ -2422,7 +2518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12" ht="18">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -2433,7 +2529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:12" ht="18">
       <c r="C12" t="s">
         <v>80</v>
       </c>
@@ -2444,7 +2540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:12" ht="18">
       <c r="C13" t="s">
         <v>81</v>
       </c>
@@ -2455,7 +2551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12" ht="18">
       <c r="C14" t="s">
         <v>82</v>
       </c>
@@ -2466,7 +2562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12" ht="18">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -2477,7 +2573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:12" ht="18">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" ht="18">
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -2499,7 +2595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" ht="18">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" ht="18">
       <c r="C19" t="s">
         <v>84</v>
       </c>
@@ -2521,7 +2617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" ht="18">
       <c r="C20" t="s">
         <v>85</v>
       </c>
@@ -2532,7 +2628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" ht="18">
       <c r="C21" t="s">
         <v>86</v>
       </c>
@@ -2543,7 +2639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" ht="18">
       <c r="C22" t="s">
         <v>87</v>
       </c>
@@ -2554,7 +2650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" ht="18">
       <c r="C23" t="s">
         <v>88</v>
       </c>
@@ -2565,7 +2661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" ht="18">
       <c r="C24" t="s">
         <v>89</v>
       </c>
@@ -2576,7 +2672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" ht="18">
       <c r="C25" t="s">
         <v>90</v>
       </c>
@@ -2587,7 +2683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" ht="18">
       <c r="C26" t="s">
         <v>91</v>
       </c>
@@ -2598,7 +2694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" ht="18">
       <c r="C27" t="s">
         <v>18</v>
       </c>
@@ -2609,7 +2705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" ht="18">
       <c r="C28" t="s">
         <v>92</v>
       </c>
@@ -2620,7 +2716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" ht="18">
       <c r="C29" t="s">
         <v>93</v>
       </c>
@@ -2631,7 +2727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" ht="18">
       <c r="C30" t="s">
         <v>94</v>
       </c>
@@ -2642,7 +2738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" ht="18">
       <c r="C31" t="s">
         <v>95</v>
       </c>
@@ -2653,7 +2749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" ht="18">
       <c r="C32" t="s">
         <v>96</v>
       </c>
@@ -2664,7 +2760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" ht="18">
       <c r="C33" t="s">
         <v>97</v>
       </c>
@@ -2675,7 +2771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" ht="18">
       <c r="C34" t="s">
         <v>98</v>
       </c>
@@ -2686,7 +2782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" ht="18">
       <c r="C35" t="s">
         <v>99</v>
       </c>
@@ -2697,7 +2793,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" ht="18">
       <c r="C36" t="s">
         <v>100</v>
       </c>
@@ -2708,7 +2804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" ht="18">
       <c r="C37" t="s">
         <v>101</v>
       </c>
@@ -2719,7 +2815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" ht="18">
       <c r="C38" t="s">
         <v>102</v>
       </c>
@@ -2730,7 +2826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" ht="18">
       <c r="C39" t="s">
         <v>103</v>
       </c>
@@ -2741,7 +2837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" ht="18">
       <c r="C40" t="s">
         <v>104</v>
       </c>
@@ -2752,7 +2848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" ht="18">
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -2763,7 +2859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" ht="18">
       <c r="C42" t="s">
         <v>105</v>
       </c>
@@ -2774,7 +2870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" ht="18">
       <c r="C43" t="s">
         <v>106</v>
       </c>
@@ -2785,7 +2881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" ht="18">
       <c r="C44" t="s">
         <v>107</v>
       </c>
@@ -2796,7 +2892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" ht="18">
       <c r="C45" t="s">
         <v>108</v>
       </c>
@@ -2807,7 +2903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" ht="18">
       <c r="C46" t="s">
         <v>109</v>
       </c>
@@ -2818,7 +2914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" ht="18">
       <c r="C47" t="s">
         <v>110</v>
       </c>
@@ -2837,785 +2933,785 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1B795-DCD7-7F4A-828A-D379F0CFEE62}">
-  <dimension ref="A1:V345"/>
+  <dimension ref="A1:AR345"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="K1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="10" max="10" width="119.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" customWidth="1"/>
+    <col min="10" max="10" width="119.77734375" customWidth="1"/>
     <col min="12" max="12" width="28.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="4"/>
+    <col min="13" max="13" width="10.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:44">
       <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" t="str" cm="1">
-        <f t="array" ref="S1">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO1" t="str" cm="1">
+        <f t="array" ref="AO1">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-12-64GB-Black/dp/B08PP5MSVB/ref=zg_bs_g_amazon-renewed_d_sccl_1/130-3011150-8800723?psc</v>
       </c>
-      <c r="T1" t="str" cm="1">
-        <f t="array" ref="T1">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP1" t="str" cm="1">
+        <f t="array" ref="AP1">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 12, 64GB, Black - Fully Unlocked (Renewed)</v>
       </c>
-      <c r="U1" t="str" cm="1">
-        <f t="array" ref="U1">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ1" t="str" cm="1">
+        <f t="array" ref="AQ1">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/41bIlvE1rdL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V1" t="str" cm="1">
-        <f t="array" ref="V1">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR1" t="str" cm="1">
+        <f t="array" ref="AR1">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-12-64GB-Black</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:44">
       <c r="B2" t="s">
         <v>114</v>
       </c>
-      <c r="S2" t="str" cm="1">
-        <f t="array" ref="S2">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO2" t="str" cm="1">
+        <f t="array" ref="AO2">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-12-64GB-Black/dp/B08PP5MSVB/ref=zg_bs_g_amazon-renewed_d_sccl_1/130-3011150-8800723?psc</v>
       </c>
-      <c r="T2" t="str" cm="1">
-        <f t="array" ref="T2">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP2" t="str" cm="1">
+        <f t="array" ref="AP2">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 12, 64GB, Black - Fully Unlocked (Renewed)</v>
       </c>
-      <c r="U2" t="str" cm="1">
-        <f t="array" ref="U2">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ2" t="str" cm="1">
+        <f t="array" ref="AQ2">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/41bIlvE1rdL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V2" t="str" cm="1">
-        <f t="array" ref="V2">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR2" t="str" cm="1">
+        <f t="array" ref="AR2">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-12-64GB-Black</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S3" t="str" cm="1">
-        <f t="array" ref="S3">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="3" spans="2:44">
+      <c r="AO3" t="str" cm="1">
+        <f t="array" ref="AO3">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-11-64GB-Black/dp/B07ZPKN6YR/ref=zg_bs_g_amazon-renewed_d_sccl_2/130-3011150-8800723?psc</v>
       </c>
-      <c r="T3" t="str" cm="1">
-        <f t="array" ref="T3">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP3" t="str" cm="1">
+        <f t="array" ref="AP3">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 11, 64GB, Black - Unlocked (Renewed)</v>
       </c>
-      <c r="U3" t="str" cm="1">
-        <f t="array" ref="U3">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ3" t="str" cm="1">
+        <f t="array" ref="AQ3">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/612kg3rGyYL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V3" t="str" cm="1">
-        <f t="array" ref="V3">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR3" t="str" cm="1">
+        <f t="array" ref="AR3">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-11-64GB-Black</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:44">
       <c r="B4" t="s">
         <v>115</v>
       </c>
-      <c r="S4" t="str" cm="1">
-        <f t="array" ref="S4">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO4" t="str" cm="1">
+        <f t="array" ref="AO4">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-12-Mini-Black/dp/B08PPDJWC8/ref=zg_bs_g_amazon-renewed_d_sccl_3/130-3011150-8800723?psc</v>
       </c>
-      <c r="T4" t="str" cm="1">
-        <f t="array" ref="T4">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP4" t="str" cm="1">
+        <f t="array" ref="AP4">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 12 Mini, 64GB, Black - Unlocked (Renewed)</v>
       </c>
-      <c r="U4" t="str" cm="1">
-        <f t="array" ref="U4">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ4" t="str" cm="1">
+        <f t="array" ref="AQ4">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61xXeO6ojPL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V4" t="str" cm="1">
-        <f t="array" ref="V4">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR4" t="str" cm="1">
+        <f t="array" ref="AR4">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-12-Mini-Black</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:44">
       <c r="B5" t="s">
         <v>116</v>
       </c>
-      <c r="S5" t="str" cm="1">
-        <f t="array" ref="S5">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO5" t="str" cm="1">
+        <f t="array" ref="AO5">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-13-128GB-Midnight/dp/B09LNW3CY2/ref=zg_bs_g_amazon-renewed_d_sccl_4/130-3011150-8800723?psc</v>
       </c>
-      <c r="T5" t="str" cm="1">
-        <f t="array" ref="T5">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP5" t="str" cm="1">
+        <f t="array" ref="AP5">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 13, 128GB, Midnight - Unlocked (Renewed)</v>
       </c>
-      <c r="U5" t="str" cm="1">
-        <f t="array" ref="U5">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ5" t="str" cm="1">
+        <f t="array" ref="AQ5">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61VuVU94RnL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V5" t="str" cm="1">
-        <f t="array" ref="V5">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR5" t="str" cm="1">
+        <f t="array" ref="AR5">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-13-128GB-Midnight</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S6" t="str" cm="1">
-        <f t="array" ref="S6">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="6" spans="2:44">
+      <c r="AO6" t="str" cm="1">
+        <f t="array" ref="AO6">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-SE-64GB-White/dp/B088NQSLGN/ref=zg_bs_g_amazon-renewed_d_sccl_5/130-3011150-8800723?psc</v>
       </c>
-      <c r="T6" t="str" cm="1">
-        <f t="array" ref="T6">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP6" t="str" cm="1">
+        <f t="array" ref="AP6">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone SE (2nd Generation), US Version, 64GB, White - Unlocked (Renewed)</v>
       </c>
-      <c r="U6" t="str" cm="1">
-        <f t="array" ref="U6">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ6" t="str" cm="1">
+        <f t="array" ref="AQ6">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61TcrRQBv0L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V6" t="str" cm="1">
-        <f t="array" ref="V6">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR6" t="str" cm="1">
+        <f t="array" ref="AR6">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-SE-64GB-White</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:44">
       <c r="B7" t="s">
         <v>117</v>
       </c>
-      <c r="S7" t="str" cm="1">
-        <f t="array" ref="S7">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO7" t="str" cm="1">
+        <f t="array" ref="AO7">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Beats-Studio-Pro-Cancelling-Headphones/dp/B0CGKG9NSY/ref=zg_bs_g_amazon-renewed_d_sccl_6/130-3011150-8800723?psc</v>
       </c>
-      <c r="T7" t="str" cm="1">
-        <f t="array" ref="T7">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP7" t="str" cm="1">
+        <f t="array" ref="AP7">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Beats Studio Pro - Wireless Bluetooth Noise Cancelling Headphones - Black (Renewed)</v>
       </c>
-      <c r="U7" t="str" cm="1">
-        <f t="array" ref="U7">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ7" t="str" cm="1">
+        <f t="array" ref="AQ7">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61u-OaDSfQL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V7" t="str" cm="1">
-        <f t="array" ref="V7">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR7" t="str" cm="1">
+        <f t="array" ref="AR7">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Beats-Studio-Pro-Cancelling-Headphones</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:44">
       <c r="B8" t="s">
         <v>118</v>
       </c>
-      <c r="S8" t="str" cm="1">
-        <f t="array" ref="S8">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO8" t="str" cm="1">
+        <f t="array" ref="AO8">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPad-10-2-Inch-Wi-Fi-32GB/dp/B08264XHCZ/ref=zg_bs_g_amazon-renewed_d_sccl_7/130-3011150-8800723?psc</v>
       </c>
-      <c r="T8" t="str" cm="1">
-        <f t="array" ref="T8">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP8" t="str" cm="1">
+        <f t="array" ref="AP8">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPad (10.2-Inch, Wi-Fi, 32GB) - Space Gray (Renewed)</v>
       </c>
-      <c r="U8" t="str" cm="1">
-        <f t="array" ref="U8">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ8" t="str" cm="1">
+        <f t="array" ref="AQ8">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61m8rRc8RfL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V8" t="str" cm="1">
-        <f t="array" ref="V8">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR8" t="str" cm="1">
+        <f t="array" ref="AR8">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPad-10-2-Inch-Wi-Fi-32GB</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:44">
       <c r="B9" t="s">
         <v>119</v>
       </c>
-      <c r="S9" t="str" cm="1">
-        <f t="array" ref="S9">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO9" t="str" cm="1">
+        <f t="array" ref="AO9">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-Watch-GPS-40mm-Aluminum/dp/B07P6N1FKS/ref=zg_bs_g_amazon-renewed_d_sccl_8/130-3011150-8800723?psc</v>
       </c>
-      <c r="T9" t="str" cm="1">
-        <f t="array" ref="T9">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP9" t="str" cm="1">
+        <f t="array" ref="AP9">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple Watch Series 4 (GPS, 40MM) - Silver Aluminum Case with White Sport Band (Renewed)</v>
       </c>
-      <c r="U9" t="str" cm="1">
-        <f t="array" ref="U9">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ9" t="str" cm="1">
+        <f t="array" ref="AQ9">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51ZO97Hm0EL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V9" t="str" cm="1">
-        <f t="array" ref="V9">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR9" t="str" cm="1">
+        <f t="array" ref="AR9">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-Watch-GPS-40mm-Aluminum</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:44">
       <c r="B10" t="s">
         <v>120</v>
       </c>
-      <c r="S10" t="str" cm="1">
-        <f t="array" ref="S10">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO10" t="str" cm="1">
+        <f t="array" ref="AO10">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-128GB-Pacific-Blue/dp/B08PMYLKVF/ref=zg_bs_g_amazon-renewed_d_sccl_9/130-3011150-8800723?psc</v>
       </c>
-      <c r="T10" t="str" cm="1">
-        <f t="array" ref="T10">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP10" t="str" cm="1">
+        <f t="array" ref="AP10">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 12 Pro, 128GB, Pacific Blue - Fully Unlocked (Renewed)</v>
       </c>
-      <c r="U10" t="str" cm="1">
-        <f t="array" ref="U10">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ10" t="str" cm="1">
+        <f t="array" ref="AQ10">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51n-83C8HYL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V10" t="str" cm="1">
-        <f t="array" ref="V10">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR10" t="str" cm="1">
+        <f t="array" ref="AR10">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-128GB-Pacific-Blue</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S11" t="str" cm="1">
-        <f t="array" ref="S11">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="11" spans="2:44">
+      <c r="AO11" t="str" cm="1">
+        <f t="array" ref="AO11">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-XR-Fully-Unlocked/dp/B07P6Y7954/ref=zg_bs_g_amazon-renewed_d_sccl_10/130-3011150-8800723?psc</v>
       </c>
-      <c r="T11" t="str" cm="1">
-        <f t="array" ref="T11">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP11" t="str" cm="1">
+        <f t="array" ref="AP11">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone XR, 64GB, Black - Unlocked (Renewed)</v>
       </c>
-      <c r="U11" t="str" cm="1">
-        <f t="array" ref="U11">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ11" t="str" cm="1">
+        <f t="array" ref="AQ11">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/717KHGCJ6eL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V11" t="str" cm="1">
-        <f t="array" ref="V11">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR11" t="str" cm="1">
+        <f t="array" ref="AR11">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-XR-Fully-Unlocked</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:44">
       <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="S12" t="str" cm="1">
-        <f t="array" ref="S12">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO12" t="str" cm="1">
+        <f t="array" ref="AO12">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-AirPods-Max-Space-Renewed/dp/B08XY48BJD/ref=zg_bs_g_amazon-renewed_d_sccl_11/130-3011150-8800723?psc</v>
       </c>
-      <c r="T12" t="str" cm="1">
-        <f t="array" ref="T12">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP12" t="str" cm="1">
+        <f t="array" ref="AP12">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple AirPods Max - Space Gray (Renewed)</v>
       </c>
-      <c r="U12" t="str" cm="1">
-        <f t="array" ref="U12">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ12" t="str" cm="1">
+        <f t="array" ref="AQ12">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/81fSoQd7nsL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V12" t="str" cm="1">
-        <f t="array" ref="V12">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR12" t="str" cm="1">
+        <f t="array" ref="AR12">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-AirPods-Max-Space-Renewed</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:44">
       <c r="B13" t="s">
         <v>122</v>
       </c>
-      <c r="S13" t="str" cm="1">
-        <f t="array" ref="S13">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO13" t="str" cm="1">
+        <f t="array" ref="AO13">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-14-128GB-Midnight/dp/B0BN72FYFG/ref=zg_bs_g_amazon-renewed_d_sccl_12/130-3011150-8800723?psc</v>
       </c>
-      <c r="T13" t="str" cm="1">
-        <f t="array" ref="T13">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP13" t="str" cm="1">
+        <f t="array" ref="AP13">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 14, 128GB, Midnight - Unlocked (Renewed)</v>
       </c>
-      <c r="U13" t="str" cm="1">
-        <f t="array" ref="U13">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ13" t="str" cm="1">
+        <f t="array" ref="AQ13">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/618h-H-R+ZL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V13" t="str" cm="1">
-        <f t="array" ref="V13">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR13" t="str" cm="1">
+        <f t="array" ref="AR13">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-14-128GB-Midnight</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S14" t="str" cm="1">
-        <f t="array" ref="S14">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="14" spans="2:44">
+      <c r="AO14" t="str" cm="1">
+        <f t="array" ref="AO14">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-Watch-GPS-44MM-Aluminum/dp/B083M8DP6X/ref=zg_bs_g_amazon-renewed_d_sccl_13/130-3011150-8800723?psc</v>
       </c>
-      <c r="T14" t="str" cm="1">
-        <f t="array" ref="T14">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP14" t="str" cm="1">
+        <f t="array" ref="AP14">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple Watch Series 5 (GPS, 44MM) - Space Gray Aluminum Case with Black Sport Band (Renewed)</v>
       </c>
-      <c r="U14" t="str" cm="1">
-        <f t="array" ref="U14">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ14" t="str" cm="1">
+        <f t="array" ref="AQ14">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/71qp5fCNp7L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V14" t="str" cm="1">
-        <f t="array" ref="V14">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR14" t="str" cm="1">
+        <f t="array" ref="AR14">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-Watch-GPS-44MM-Aluminum</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:44">
       <c r="B15" t="s">
         <v>123</v>
       </c>
-      <c r="S15" t="str" cm="1">
-        <f t="array" ref="S15">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO15" t="str" cm="1">
+        <f t="array" ref="AO15">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-13-Pro-Graphite/dp/B09LP77GDL/ref=zg_bs_g_amazon-renewed_d_sccl_14/130-3011150-8800723?psc</v>
       </c>
-      <c r="T15" t="str" cm="1">
-        <f t="array" ref="T15">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP15" t="str" cm="1">
+        <f t="array" ref="AP15">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 13 Pro, 128GB, Graphite - Unlocked (Renewed)</v>
       </c>
-      <c r="U15" t="str" cm="1">
-        <f t="array" ref="U15">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ15" t="str" cm="1">
+        <f t="array" ref="AQ15">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51UtM-A3fdL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V15" t="str" cm="1">
-        <f t="array" ref="V15">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR15" t="str" cm="1">
+        <f t="array" ref="AR15">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-13-Pro-Graphite</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:44">
       <c r="B16" t="s">
         <v>124</v>
       </c>
-      <c r="S16" t="str" cm="1">
-        <f t="array" ref="S16">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO16" t="str" cm="1">
+        <f t="array" ref="AO16">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-13-Mini-Midnight/dp/B09LKTXKXQ/ref=zg_bs_g_amazon-renewed_d_sccl_15/130-3011150-8800723?psc</v>
       </c>
-      <c r="T16" t="str" cm="1">
-        <f t="array" ref="T16">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP16" t="str" cm="1">
+        <f t="array" ref="AP16">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 13 Mini, 128GB, Midnight - Unlocked (Renewed)</v>
       </c>
-      <c r="U16" t="str" cm="1">
-        <f t="array" ref="U16">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ16" t="str" cm="1">
+        <f t="array" ref="AQ16">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61g+McQpg7L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V16" t="str" cm="1">
-        <f t="array" ref="V16">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR16" t="str" cm="1">
+        <f t="array" ref="AR16">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-13-Mini-Midnight</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:44">
       <c r="B17" t="s">
         <v>125</v>
       </c>
-      <c r="S17" t="str" cm="1">
-        <f t="array" ref="S17">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO17" t="str" cm="1">
+        <f t="array" ref="AO17">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-AirPods-Lightning-Charging-Generation/dp/B0BNJNP1P6/ref=zg_bs_g_amazon-renewed_d_sccl_16/130-3011150-8800723?psc</v>
       </c>
-      <c r="T17" t="str" cm="1">
-        <f t="array" ref="T17">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP17" t="str" cm="1">
+        <f t="array" ref="AP17">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple AirPods with Lightning Charging Case (3rd Generation) (Renewed)</v>
       </c>
-      <c r="U17" t="str" cm="1">
-        <f t="array" ref="U17">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ17" t="str" cm="1">
+        <f t="array" ref="AQ17">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61CmrrKebAL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V17" t="str" cm="1">
-        <f t="array" ref="V17">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR17" t="str" cm="1">
+        <f t="array" ref="AR17">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-AirPods-Lightning-Charging-Generation</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S18" t="str" cm="1">
-        <f t="array" ref="S18">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="18" spans="2:44">
+      <c r="AO18" t="str" cm="1">
+        <f t="array" ref="AO18">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Samsung-Galaxy-S22-5G-Unlocked/dp/B09VD33WHW/ref=zg_bs_g_amazon-renewed_d_sccl_17/130-3011150-8800723?psc</v>
       </c>
-      <c r="T18" t="str" cm="1">
-        <f t="array" ref="T18">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP18" t="str" cm="1">
+        <f t="array" ref="AP18">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Samsung Galaxy S22 Ultra 5G Unlocked - 128GB - Black (Renewed)</v>
       </c>
-      <c r="U18" t="str" cm="1">
-        <f t="array" ref="U18">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ18" t="str" cm="1">
+        <f t="array" ref="AQ18">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/613Fp7fknhL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V18" t="str" cm="1">
-        <f t="array" ref="V18">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR18" t="str" cm="1">
+        <f t="array" ref="AR18">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Samsung-Galaxy-S22-5G-Unlocked</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:44">
       <c r="B19" t="s">
         <v>126</v>
       </c>
-      <c r="S19" t="str" cm="1">
-        <f t="array" ref="S19">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO19" t="str" cm="1">
+        <f t="array" ref="AO19">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPad-10-2-inch-Wi-Fi-32GB/dp/B08KWJW3DV/ref=zg_bs_g_amazon-renewed_d_sccl_18/130-3011150-8800723?psc</v>
       </c>
-      <c r="T19" t="str" cm="1">
-        <f t="array" ref="T19">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP19" t="str" cm="1">
+        <f t="array" ref="AP19">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>2020 Apple iPad (10.2-inch, Wi-Fi, 32GB) - Space Gray (Renewed)</v>
       </c>
-      <c r="U19" t="str" cm="1">
-        <f t="array" ref="U19">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ19" t="str" cm="1">
+        <f t="array" ref="AQ19">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/41cRwtHyROS._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V19" t="str" cm="1">
-        <f t="array" ref="V19">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR19" t="str" cm="1">
+        <f t="array" ref="AR19">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPad-10-2-inch-Wi-Fi-32GB</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:44">
       <c r="B20" t="s">
         <v>127</v>
       </c>
-      <c r="S20" t="str" cm="1">
-        <f t="array" ref="S20">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO20" t="str" cm="1">
+        <f t="array" ref="AO20">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-SE-3rd-Midnight/dp/B0BDY71GRG/ref=zg_bs_g_amazon-renewed_d_sccl_19/130-3011150-8800723?psc</v>
       </c>
-      <c r="T20" t="str" cm="1">
-        <f t="array" ref="T20">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP20" t="str" cm="1">
+        <f t="array" ref="AP20">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone SE 3rd Gen, 64GB, Midnight - Unlocked (Renewed)</v>
       </c>
-      <c r="U20" t="str" cm="1">
-        <f t="array" ref="U20">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ20" t="str" cm="1">
+        <f t="array" ref="AQ20">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51dtGasJvnL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V20" t="str" cm="1">
-        <f t="array" ref="V20">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR20" t="str" cm="1">
+        <f t="array" ref="AR20">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-SE-3rd-Midnight</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:44">
       <c r="B21" t="s">
         <v>128</v>
       </c>
-      <c r="S21" t="str" cm="1">
-        <f t="array" ref="S21">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO21" t="str" cm="1">
+        <f t="array" ref="AO21">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Epson-Wireless-Cartridge-Free-Supertank-Printing/dp/B0B6Z7PLK8/ref=zg_bs_g_amazon-renewed_d_sccl_20/130-3011150-8800723?psc</v>
       </c>
-      <c r="T21" t="str" cm="1">
-        <f t="array" ref="T21">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP21" t="str" cm="1">
+        <f t="array" ref="AP21">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Epson EcoTank ET-2850 Wireless Color All-in-One Cartridge-Free Supertank Printer with Scan, Copy and Auto 2-Sided Printing (Renewed)</v>
       </c>
-      <c r="U21" t="str" cm="1">
-        <f t="array" ref="U21">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ21" t="str" cm="1">
+        <f t="array" ref="AQ21">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/71PHjXBbocL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V21" t="str" cm="1">
-        <f t="array" ref="V21">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR21" t="str" cm="1">
+        <f t="array" ref="AR21">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Epson-Wireless-Cartridge-Free-Supertank-Printing</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:44">
       <c r="B22" t="s">
         <v>129</v>
       </c>
-      <c r="S22" t="str" cm="1">
-        <f t="array" ref="S22">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO22" t="str" cm="1">
+        <f t="array" ref="AO22">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Oculus-Quest-Advanced-All-One-2/dp/B09P4F68WT/ref=zg_bs_g_amazon-renewed_d_sccl_21/130-3011150-8800723?psc</v>
       </c>
-      <c r="T22" t="str" cm="1">
-        <f t="array" ref="T22">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP22" t="str" cm="1">
+        <f t="array" ref="AP22">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Meta Quest 2 - Advanced All-in-One Virtual Reality Headset - 256 GB (Renewed Premium)</v>
       </c>
-      <c r="U22" t="str" cm="1">
-        <f t="array" ref="U22">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ22" t="str" cm="1">
+        <f t="array" ref="AQ22">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51XaLitmvBL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V22" t="str" cm="1">
-        <f t="array" ref="V22">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR22" t="str" cm="1">
+        <f t="array" ref="AR22">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Oculus-Quest-Advanced-All-One-2</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:44">
       <c r="B23" t="s">
         <v>183</v>
       </c>
-      <c r="S23" t="str" cm="1">
-        <f t="array" ref="S23">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO23" t="str" cm="1">
+        <f t="array" ref="AO23">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-AirPods-Generation-Premium-White/dp/B0BVSSZ7PY/ref=zg_bs_g_amazon-renewed_d_sccl_22/130-3011150-8800723?psc</v>
       </c>
-      <c r="T23" t="str" cm="1">
-        <f t="array" ref="T23">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP23" t="str" cm="1">
+        <f t="array" ref="AP23">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple AirPods Pro (2nd Generation) (Renewed Premium)</v>
       </c>
-      <c r="U23" t="str" cm="1">
-        <f t="array" ref="U23">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ23" t="str" cm="1">
+        <f t="array" ref="AQ23">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61SUj2aKoEL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V23" t="str" cm="1">
-        <f t="array" ref="V23">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR23" t="str" cm="1">
+        <f t="array" ref="AR23">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-AirPods-Generation-Premium-White</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:44">
       <c r="B24" t="s">
         <v>182</v>
       </c>
-      <c r="S24" t="str" cm="1">
-        <f t="array" ref="S24">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO24" t="str" cm="1">
+        <f t="array" ref="AO24">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Renewed-Apple-Model-Wi-Fi-9-7in/dp/B07D3DDJ4L/ref=zg_bs_g_amazon-renewed_d_sccl_23/130-3011150-8800723?psc</v>
       </c>
-      <c r="T24" t="str" cm="1">
-        <f t="array" ref="T24">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP24" t="str" cm="1">
+        <f t="array" ref="AP24">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPad (2018 Model) with Wi-Fi only 32GB Apple 9.7in iPad - Space Gray (Renewed)</v>
       </c>
-      <c r="U24" t="str" cm="1">
-        <f t="array" ref="U24">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ24" t="str" cm="1">
+        <f t="array" ref="AQ24">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61aeen0K1NL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V24" t="str" cm="1">
-        <f t="array" ref="V24">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR24" t="str" cm="1">
+        <f t="array" ref="AR24">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Renewed-Apple-Model-Wi-Fi-9-7in</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:44">
       <c r="B25" t="s">
         <v>130</v>
       </c>
-      <c r="S25" t="str" cm="1">
-        <f t="array" ref="S25">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO25" t="str" cm="1">
+        <f t="array" ref="AO25">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/MultiFLEX-Technology-PowerFins-Brushroll-Anti-Allergen/dp/B0BR66G6TM/ref=zg_bs_g_amazon-renewed_d_sccl_24/130-3011150-8800723?psc</v>
       </c>
-      <c r="T25" t="str" cm="1">
-        <f t="array" ref="T25">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP25" t="str" cm="1">
+        <f t="array" ref="AP25">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Shark UZ565H Pro Cordless Vacuum w/ Clean Sense IQ &amp; MultiFLEX Technology, PowerFins Plus Brushroll, Duster Crevice Tool &amp; Anti-Allergen Dusting Brush, Up to 40 Minute Runtime, White/Blue (Renewed)</v>
       </c>
-      <c r="U25" t="str" cm="1">
-        <f t="array" ref="U25">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ25" t="str" cm="1">
+        <f t="array" ref="AQ25">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/41WKWaQnNnL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V25" t="str" cm="1">
-        <f t="array" ref="V25">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR25" t="str" cm="1">
+        <f t="array" ref="AR25">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>MultiFLEX-Technology-PowerFins-Brushroll-Anti-Allergen</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:44">
       <c r="B26" t="s">
         <v>131</v>
       </c>
-      <c r="S26" t="str" cm="1">
-        <f t="array" ref="S26">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO26" t="str" cm="1">
+        <f t="array" ref="AO26">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-AirPods-Charging-Case-Renewed/dp/B07SKLLYTW/ref=zg_bs_g_amazon-renewed_d_sccl_25/130-3011150-8800723?psc</v>
       </c>
-      <c r="T26" t="str" cm="1">
-        <f t="array" ref="T26">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP26" t="str" cm="1">
+        <f t="array" ref="AP26">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple AirPods 2 with Charging Case - White (Renewed)</v>
       </c>
-      <c r="U26" t="str" cm="1">
-        <f t="array" ref="U26">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ26" t="str" cm="1">
+        <f t="array" ref="AQ26">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/41XjE57VLvL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V26" t="str" cm="1">
-        <f t="array" ref="V26">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR26" t="str" cm="1">
+        <f t="array" ref="AR26">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-AirPods-Charging-Case-Renewed</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S27" t="str" cm="1">
-        <f t="array" ref="S27">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="27" spans="2:44">
+      <c r="AO27" t="str" cm="1">
+        <f t="array" ref="AO27">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-Watch-Cellular-Aluminum-Medium/dp/B0CTD9B3HB/ref=zg_bs_g_amazon-renewed_d_sccl_26/130-3011150-8800723?psc</v>
       </c>
-      <c r="T27" t="str" cm="1">
-        <f t="array" ref="T27">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP27" t="str" cm="1">
+        <f t="array" ref="AP27">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple Watch Series 9 45mm (GPS + Cellular) Aluminum Black with Medium/Large Black Sport Band</v>
       </c>
-      <c r="U27" t="str" cm="1">
-        <f t="array" ref="U27">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ27" t="str" cm="1">
+        <f t="array" ref="AQ27">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/7142BRGxr9L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V27" t="str" cm="1">
-        <f t="array" ref="V27">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR27" t="str" cm="1">
+        <f t="array" ref="AR27">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-Watch-Cellular-Aluminum-Medium</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:44">
       <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="S28" t="str" cm="1">
-        <f t="array" ref="S28">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO28" t="str" cm="1">
+        <f t="array" ref="AO28">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-256GB-Deep-Purple/dp/B0BN92S2ZZ/ref=zg_bs_g_amazon-renewed_d_sccl_27/130-3011150-8800723?psc</v>
       </c>
-      <c r="T28" t="str" cm="1">
-        <f t="array" ref="T28">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP28" t="str" cm="1">
+        <f t="array" ref="AP28">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 14 Pro Max, 256GB, Deep Purple - Unlocked (Renewed)</v>
       </c>
-      <c r="U28" t="str" cm="1">
-        <f t="array" ref="U28">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ28" t="str" cm="1">
+        <f t="array" ref="AQ28">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51iJx7YWDOL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V28" t="str" cm="1">
-        <f t="array" ref="V28">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR28" t="str" cm="1">
+        <f t="array" ref="AR28">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-256GB-Deep-Purple</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:44">
       <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="S29" t="str" cm="1">
-        <f t="array" ref="S29">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO29" t="str" cm="1">
+        <f t="array" ref="AO29">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Samsung-Galaxy-S21-5G-Version/dp/B08VLMQ3KS/ref=zg_bs_g_amazon-renewed_d_sccl_28/130-3011150-8800723?psc</v>
       </c>
-      <c r="T29" t="str" cm="1">
-        <f t="array" ref="T29">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP29" t="str" cm="1">
+        <f t="array" ref="AP29">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Samsung Galaxy S21 5G, US Version, 128GB, Phantom Gray - Unlocked (Renewed)</v>
       </c>
-      <c r="U29" t="str" cm="1">
-        <f t="array" ref="U29">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ29" t="str" cm="1">
+        <f t="array" ref="AQ29">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61jYjeuNUnL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V29" t="str" cm="1">
-        <f t="array" ref="V29">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR29" t="str" cm="1">
+        <f t="array" ref="AR29">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Samsung-Galaxy-S21-5G-Version</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S30" t="str" cm="1">
-        <f t="array" ref="S30">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="30" spans="2:44">
+      <c r="AO30" t="str" cm="1">
+        <f t="array" ref="AO30">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Playstation-DualSense-Wireless-Controller-Renewed-5/dp/B092LJJYDQ/ref=zg_bs_g_amazon-renewed_d_sccl_29/130-3011150-8800723?psc</v>
       </c>
-      <c r="T30" t="str" cm="1">
-        <f t="array" ref="T30">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP30" t="str" cm="1">
+        <f t="array" ref="AP30">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>DualSense Wireless Controller (Renewed)</v>
       </c>
-      <c r="U30" t="str" cm="1">
-        <f t="array" ref="U30">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ30" t="str" cm="1">
+        <f t="array" ref="AQ30">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51bE-UlxtMS._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V30" t="str" cm="1">
-        <f t="array" ref="V30">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR30" t="str" cm="1">
+        <f t="array" ref="AR30">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Playstation-DualSense-Wireless-Controller-Renewed-5</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S31" t="str" cm="1">
-        <f t="array" ref="S31">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="31" spans="2:44">
+      <c r="AO31" t="str" cm="1">
+        <f t="array" ref="AO31">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Dell-Optiplex-Desktop-Excellent-Condition/dp/B08X1KKVCZ/ref=zg_bs_g_amazon-renewed_d_sccl_30/130-3011150-8800723?psc</v>
       </c>
-      <c r="T31" t="str" cm="1">
-        <f t="array" ref="T31">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP31" t="str" cm="1">
+        <f t="array" ref="AP31">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Dell Optiplex 7050 SFF Desktop PC Intel i7-7700 4-Cores 3.60GHz 32GB DDR4 1TB SSD WiFi BT HDMI Duel Monitor Support Windows 10 Pro Excellent Condition(Renewed)</v>
       </c>
-      <c r="U31" t="str" cm="1">
-        <f t="array" ref="U31">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ31" t="str" cm="1">
+        <f t="array" ref="AQ31">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61FVIijQp2L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V31" t="str" cm="1">
-        <f t="array" ref="V31">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR31" t="str" cm="1">
+        <f t="array" ref="AR31">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Dell-Optiplex-Desktop-Excellent-Condition</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="S32" t="str" cm="1">
-        <f t="array" ref="S32">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="32" spans="2:44">
+      <c r="AO32" t="str" cm="1">
+        <f t="array" ref="AO32">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-AirPods-Wireless-Earbuds-Charging/dp/B0B844T634/ref=zg_bs_g_amazon-renewed_d_sccl_31/130-3011150-8800723?psc</v>
       </c>
-      <c r="T32" t="str" cm="1">
-        <f t="array" ref="T32">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP32" t="str" cm="1">
+        <f t="array" ref="AP32">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple AirPods Pro Wireless Earbuds with MagSafe Charging Case (Renewed)</v>
       </c>
-      <c r="U32" t="str" cm="1">
-        <f t="array" ref="U32">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ32" t="str" cm="1">
+        <f t="array" ref="AQ32">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/5111xZtj59L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V32" t="str" cm="1">
-        <f t="array" ref="V32">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR32" t="str" cm="1">
+        <f t="array" ref="AR32">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-AirPods-Wireless-Earbuds-Charging</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S33" t="str" cm="1">
-        <f t="array" ref="S33">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="33" spans="1:44">
+      <c r="AO33" t="str" cm="1">
+        <f t="array" ref="AO33">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Dell-Chromebook-3100-11-6-Bluetooth/dp/B08SHN3TZP/ref=zg_bs_g_amazon-renewed_d_sccl_32/130-3011150-8800723?psc</v>
       </c>
-      <c r="T33" t="str" cm="1">
-        <f t="array" ref="T33">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP33" t="str" cm="1">
+        <f t="array" ref="AP33">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Dell Chromebook 11 3100 11.6\" Chromebook - 1366 x 768 - Celeron N4020-4 GB RAM - 16 GB Flash Memory - Chrome OS - Intel HD Graphics - English (US) Keyboard - Bluetooth (Renewed)</v>
       </c>
-      <c r="U33" t="str" cm="1">
-        <f t="array" ref="U33">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ33" t="str" cm="1">
+        <f t="array" ref="AQ33">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/71imPv3mtFL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V33" t="str" cm="1">
-        <f t="array" ref="V33">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR33" t="str" cm="1">
+        <f t="array" ref="AR33">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Dell-Chromebook-3100-11-6-Bluetooth</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S34" t="str" cm="1">
-        <f t="array" ref="S34">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="34" spans="1:44">
+      <c r="AO34" t="str" cm="1">
+        <f t="array" ref="AO34">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-256GB-Unlocked-Renewed/dp/B07ZQRL9XY/ref=zg_bs_g_amazon-renewed_d_sccl_33/130-3011150-8800723?psc</v>
       </c>
-      <c r="T34" t="str" cm="1">
-        <f t="array" ref="T34">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP34" t="str" cm="1">
+        <f t="array" ref="AP34">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 11 Pro, US Version, 256GB, Space Gray - Unlocked (Renewed)</v>
       </c>
-      <c r="U34" t="str" cm="1">
-        <f t="array" ref="U34">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ34" t="str" cm="1">
+        <f t="array" ref="AQ34">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/81LmL94PUvS._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V34" t="str" cm="1">
-        <f t="array" ref="V34">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR34" t="str" cm="1">
+        <f t="array" ref="AR34">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-256GB-Unlocked-Renewed</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S35" t="str" cm="1">
-        <f t="array" ref="S35">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="35" spans="1:44">
+      <c r="AO35" t="str" cm="1">
+        <f t="array" ref="AO35">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-Watch-Cellular-Midnight-Aluminum/dp/B09PQ7C8Z3/ref=zg_bs_g_amazon-renewed_d_sccl_34/130-3011150-8800723?psc</v>
       </c>
-      <c r="T35" t="str" cm="1">
-        <f t="array" ref="T35">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP35" t="str" cm="1">
+        <f t="array" ref="AP35">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple Watch Series 7 GPS + Cellular, 45mm Midnight Aluminum Case with Midnight Sport Band - Regular (Renewed)</v>
       </c>
-      <c r="U35" t="str" cm="1">
-        <f t="array" ref="U35">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ35" t="str" cm="1">
+        <f t="array" ref="AQ35">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51NV+STh2IL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V35" t="str" cm="1">
-        <f t="array" ref="V35">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR35" t="str" cm="1">
+        <f t="array" ref="AR35">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-Watch-Cellular-Midnight-Aluminum</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S36" t="str" cm="1">
-        <f t="array" ref="S36">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+    <row r="36" spans="1:44">
+      <c r="AO36" t="str" cm="1">
+        <f t="array" ref="AO36">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Powerbeats-Wireless-High-Performance-Bluetooth-Earphones/dp/B084B1HC6T/ref=zg_bs_g_amazon-renewed_d_sccl_35/130-3011150-8800723?psc</v>
       </c>
-      <c r="T36" t="str" cm="1">
-        <f t="array" ref="T36">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP36" t="str" cm="1">
+        <f t="array" ref="AP36">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Beats Powerbeats Pro Totally Wireless &amp; High-Performance Bluetooth Earphones - Navy (Renewed)</v>
       </c>
-      <c r="U36" t="str" cm="1">
-        <f t="array" ref="U36">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ36" t="str" cm="1">
+        <f t="array" ref="AQ36">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51UxMEXCUbL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V36" t="str" cm="1">
-        <f t="array" ref="V36">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR36" t="str" cm="1">
+        <f t="array" ref="AR36">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Powerbeats-Wireless-High-Performance-Bluetooth-Earphones</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44">
       <c r="A37" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="S37" t="str" cm="1">
-        <f t="array" ref="S37">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO37" t="str" cm="1">
+        <f t="array" ref="AO37">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Galaxy-S21-Ultra-5G-Smartphone/dp/B096T6Y623/ref=zg_bs_g_amazon-renewed_d_sccl_36/130-3011150-8800723?psc</v>
       </c>
-      <c r="T37" t="str" cm="1">
-        <f t="array" ref="T37">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP37" t="str" cm="1">
+        <f t="array" ref="AP37">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Samsung Galaxy S21 Ultra 5G, US Version, 128GB, Phantom Black - Unlocked (Renewed)</v>
       </c>
-      <c r="U37" t="str" cm="1">
-        <f t="array" ref="U37">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ37" t="str" cm="1">
+        <f t="array" ref="AQ37">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61dlAm9BpqL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V37" t="str" cm="1">
-        <f t="array" ref="V37">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR37" t="str" cm="1">
+        <f t="array" ref="AR37">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Galaxy-S21-Ultra-5G-Smartphone</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44">
       <c r="A38" t="s">
         <v>134</v>
       </c>
-      <c r="S38" t="str" cm="1">
-        <f t="array" ref="S38">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="AO38" t="str" cm="1">
+        <f t="array" ref="AO38">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-15-128GB-Black/dp/B0CMPMY9ZZ/ref=zg_bs_g_amazon-renewed_d_sccl_37/130-3011150-8800723?psc</v>
       </c>
-      <c r="T38" t="str" cm="1">
-        <f t="array" ref="T38">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP38" t="str" cm="1">
+        <f t="array" ref="AP38">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 15, 128GB, Black - Unlocked (Renewed)</v>
       </c>
-      <c r="U38" t="str" cm="1">
-        <f t="array" ref="U38">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ38" t="str" cm="1">
+        <f t="array" ref="AQ38">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51PtFHUPjBL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V38" t="str" cm="1">
-        <f t="array" ref="V38">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR38" t="str" cm="1">
+        <f t="array" ref="AR38">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-15-128GB-Black</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -3629,24 +3725,25 @@
       <c r="K39" t="s">
         <v>145</v>
       </c>
-      <c r="S39" t="str" cm="1">
-        <f t="array" ref="S39">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O39" s="7"/>
+      <c r="AO39" t="str" cm="1">
+        <f t="array" ref="AO39">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Samsung-Smartphone-Unlocked-Brightest-Processor/dp/B09V5LDZQ4/ref=zg_bs_g_amazon-renewed_d_sccl_38/130-3011150-8800723?psc</v>
       </c>
-      <c r="T39" t="str" cm="1">
-        <f t="array" ref="T39">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP39" t="str" cm="1">
+        <f t="array" ref="AP39">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Samsung Galaxy S22 Smartphone, Factory Unlocked Android Cell Phone, 128GB, 8K Camera &amp; Video, Brightest Display, Long Battery Life, Fast 4nm Processor, US Version, Phantom Black (Renewed)</v>
       </c>
-      <c r="U39" t="str" cm="1">
-        <f t="array" ref="U39">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ39" t="str" cm="1">
+        <f t="array" ref="AQ39">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61kfOWlQLsL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V39" t="str" cm="1">
-        <f t="array" ref="V39">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR39" t="str" cm="1">
+        <f t="array" ref="AR39">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Samsung-Smartphone-Unlocked-Brightest-Processor</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -3671,24 +3768,27 @@
         <f>B40</f>
         <v>https://c.media-amazon.com/images/I/41bIlvE1rdL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="S40" t="str" cm="1">
-        <f t="array" ref="S40">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O40" t="s">
+        <v>648</v>
+      </c>
+      <c r="AO40" t="str" cm="1">
+        <f t="array" ref="AO40">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-256GB-Deep-Purple/dp/B0BN91GD3J/ref=zg_bs_g_amazon-renewed_d_sccl_39/130-3011150-8800723?psc</v>
       </c>
-      <c r="T40" t="str" cm="1">
-        <f t="array" ref="T40">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP40" t="str" cm="1">
+        <f t="array" ref="AP40">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 14 Pro, 256GB, Deep Purple - Unlocked (Renewed)</v>
       </c>
-      <c r="U40" t="str" cm="1">
-        <f t="array" ref="U40">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ40" t="str" cm="1">
+        <f t="array" ref="AQ40">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/518bzP8VW1L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V40" t="str" cm="1">
-        <f t="array" ref="V40">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR40" t="str" cm="1">
+        <f t="array" ref="AR40">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-256GB-Deep-Purple</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -3710,24 +3810,27 @@
         <f>B41</f>
         <v>Apple iPhone 12, 64GB, Black - Fully Unlocked (Renewed)</v>
       </c>
-      <c r="S41" t="str" cm="1">
-        <f t="array" ref="S41">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O41" t="s">
+        <v>649</v>
+      </c>
+      <c r="AO41" t="str" cm="1">
+        <f t="array" ref="AO41">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/SAMSUNG-Factory-Unlocked-Android-Smartphone/dp/B0C1Q3MVBP/ref=zg_bs_g_amazon-renewed_d_sccl_40/130-3011150-8800723?psc</v>
       </c>
-      <c r="T41" t="str" cm="1">
-        <f t="array" ref="T41">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP41" t="str" cm="1">
+        <f t="array" ref="AP41">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Samsung Galaxy A14 5G A Series, Factory Unlocked, 64GB, US Version, Black (Renewed)</v>
       </c>
-      <c r="U41" t="str" cm="1">
-        <f t="array" ref="U41">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ41" t="str" cm="1">
+        <f t="array" ref="AQ41">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61G9RdA0EQL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V41" t="str" cm="1">
-        <f t="array" ref="V41">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR41" t="str" cm="1">
+        <f t="array" ref="AR41">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>SAMSUNG-Factory-Unlocked-Android-Smartphone</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -3746,24 +3849,27 @@
         <f>B42</f>
         <v>Apple-iPhone-12-64GB-Black</v>
       </c>
-      <c r="S42" t="str" cm="1">
-        <f t="array" ref="S42">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O42" t="s">
+        <v>650</v>
+      </c>
+      <c r="AO42" t="str" cm="1">
+        <f t="array" ref="AO42">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-Plus-128GB-Purple/dp/B0BN9RKQL7/ref=zg_bs_g_amazon-renewed_d_sccl_41/130-3011150-8800723?psc</v>
       </c>
-      <c r="T42" t="str" cm="1">
-        <f t="array" ref="T42">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP42" t="str" cm="1">
+        <f t="array" ref="AP42">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 14 Plus, 128GB, Purple - Unlocked (Renewed)</v>
       </c>
-      <c r="U42" t="str" cm="1">
-        <f t="array" ref="U42">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ42" t="str" cm="1">
+        <f t="array" ref="AQ42">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61a2t+ZS7cL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V42" t="str" cm="1">
-        <f t="array" ref="V42">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR42" t="str" cm="1">
+        <f t="array" ref="AR42">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-Plus-128GB-Purple</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -3778,45 +3884,51 @@
         <f>MID(A43, FIND("https://", A43), FIND("?psc=", A43) - FIND("https://", A43) + LEN("?psc=") - 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-12-64GB-Black/dp/B08PP5MSVB/ref=zg_bs_g_amazon-renewed_d_sccl_1/130-3011150-8800723?psc</v>
       </c>
-      <c r="S43" t="str" cm="1">
-        <f t="array" ref="S43">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O43" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO43" t="str" cm="1">
+        <f t="array" ref="AO43">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-128GB-Pacific-Blue/dp/B08PMP778K/ref=zg_bs_g_amazon-renewed_d_sccl_42/130-3011150-8800723?psc</v>
       </c>
-      <c r="T43" t="str" cm="1">
-        <f t="array" ref="T43">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP43" t="str" cm="1">
+        <f t="array" ref="AP43">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 12 Pro Max, 128GB, Pacific Blue - Fully Unlocked (Renewed)</v>
       </c>
-      <c r="U43" t="str" cm="1">
-        <f t="array" ref="U43">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ43" t="str" cm="1">
+        <f t="array" ref="AQ43">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/71FuI8YvCNL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V43" t="str" cm="1">
-        <f t="array" ref="V43">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR43" t="str" cm="1">
+        <f t="array" ref="AR43">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-128GB-Pacific-Blue</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44">
       <c r="A44" t="s">
         <v>136</v>
       </c>
-      <c r="S44" t="str" cm="1">
-        <f t="array" ref="S44">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O44" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO44" t="str" cm="1">
+        <f t="array" ref="AO44">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Samsung-Galaxy-S20-FE-128GB/dp/B08L34JQ9C/ref=zg_bs_g_amazon-renewed_d_sccl_43/130-3011150-8800723?psc</v>
       </c>
-      <c r="T44" t="str" cm="1">
-        <f t="array" ref="T44">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP44" t="str" cm="1">
+        <f t="array" ref="AP44">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Samsung Galaxy S20 FE 5G, 128GB, Cloud Navy - Unlocked (Renewed)</v>
       </c>
-      <c r="U44" t="str" cm="1">
-        <f t="array" ref="U44">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ44" t="str" cm="1">
+        <f t="array" ref="AQ44">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51IRxly2xcL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V44" t="str" cm="1">
-        <f t="array" ref="V44">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR44" t="str" cm="1">
+        <f t="array" ref="AR44">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Samsung-Galaxy-S20-FE-128GB</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -3830,24 +3942,25 @@
       <c r="K45" t="s">
         <v>145</v>
       </c>
-      <c r="S45" t="str" cm="1">
-        <f t="array" ref="S45">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O45" s="7"/>
+      <c r="AO45" t="str" cm="1">
+        <f t="array" ref="AO45">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/SAMSUNG-Galaxy-A13-LTE-32GB/dp/B09Z8P34NM/ref=zg_bs_g_amazon-renewed_d_sccl_44/130-3011150-8800723?psc</v>
       </c>
-      <c r="T45" t="str" cm="1">
-        <f t="array" ref="T45">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP45" t="str" cm="1">
+        <f t="array" ref="AP45">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>SAMSUNG Galaxy A13 LTE, Factory Unlocked Smartphone, Android Cell Phone, Water Resistant, 50MP Camera, US Version, 32GB, Black (Renewed)</v>
       </c>
-      <c r="U45" t="str" cm="1">
-        <f t="array" ref="U45">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ45" t="str" cm="1">
+        <f t="array" ref="AQ45">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61IX+1qw35L._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V45" t="str" cm="1">
-        <f t="array" ref="V45">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR45" t="str" cm="1">
+        <f t="array" ref="AR45">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>SAMSUNG-Galaxy-A13-LTE-32GB</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -3872,24 +3985,27 @@
         <f t="shared" ref="N46:N48" si="3">B46</f>
         <v>https://c.media-amazon.com/images/I/41bIlvE1rdL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="S46" t="str" cm="1">
-        <f t="array" ref="S46">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O46" t="s">
+        <v>648</v>
+      </c>
+      <c r="AO46" t="str" cm="1">
+        <f t="array" ref="AO46">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Beats-Studio-Buds-Cancelling-Earphones/dp/B098M47N55/ref=zg_bs_g_amazon-renewed_d_sccl_45/130-3011150-8800723?psc</v>
       </c>
-      <c r="T46" t="str" cm="1">
-        <f t="array" ref="T46">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP46" t="str" cm="1">
+        <f t="array" ref="AP46">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Beats Studio Buds Totally Wireless Noise Cancelling Earphones - Black (Renewed)</v>
       </c>
-      <c r="U46" t="str" cm="1">
-        <f t="array" ref="U46">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ46" t="str" cm="1">
+        <f t="array" ref="AQ46">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/51bRSWrEc7S._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V46" t="str" cm="1">
-        <f t="array" ref="V46">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR46" t="str" cm="1">
+        <f t="array" ref="AR46">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Beats-Studio-Buds-Cancelling-Earphones</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -3911,24 +4027,27 @@
         <f t="shared" si="3"/>
         <v>Apple iPhone 12, 64GB, Black - Fully Unlocked (Renewed)</v>
       </c>
-      <c r="S47" t="str" cm="1">
-        <f t="array" ref="S47">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O47" t="s">
+        <v>649</v>
+      </c>
+      <c r="AO47" t="str" cm="1">
+        <f t="array" ref="AO47">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-64GB-Midnight-Green/dp/B07ZQS6LPZ/ref=zg_bs_g_amazon-renewed_d_sccl_46/130-3011150-8800723?psc</v>
       </c>
-      <c r="T47" t="str" cm="1">
-        <f t="array" ref="T47">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP47" t="str" cm="1">
+        <f t="array" ref="AP47">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Apple iPhone 11 Pro Max, US Version, 64GB, Midnight Green - Unlocked (Renewed)</v>
       </c>
-      <c r="U47" t="str" cm="1">
-        <f t="array" ref="U47">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ47" t="str" cm="1">
+        <f t="array" ref="AQ47">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/71yIGykJFNS._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V47" t="str" cm="1">
-        <f t="array" ref="V47">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR47" t="str" cm="1">
+        <f t="array" ref="AR47">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPhone-64GB-Midnight-Green</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -3947,24 +4066,27 @@
         <f t="shared" si="3"/>
         <v>Apple-iPhone-12-64GB-Black</v>
       </c>
-      <c r="S48" t="str" cm="1">
-        <f t="array" ref="S48">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O48" t="s">
+        <v>650</v>
+      </c>
+      <c r="AO48" t="str" cm="1">
+        <f t="array" ref="AO48">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Texas-Instruments-Graphing-Calculator-Renewed/dp/B07VYV87V1/ref=zg_bs_g_amazon-renewed_d_sccl_47/130-3011150-8800723?psc</v>
       </c>
-      <c r="T48" t="str" cm="1">
-        <f t="array" ref="T48">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP48" t="str" cm="1">
+        <f t="array" ref="AP48">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Texas Instruments TI-84 Plus Silver Edition Graphing Calculator, Silver (Renewed)</v>
       </c>
-      <c r="U48" t="str" cm="1">
-        <f t="array" ref="U48">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ48" t="str" cm="1">
+        <f t="array" ref="AQ48">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/41ey+reh0jL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V48" t="str" cm="1">
-        <f t="array" ref="V48">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR48" t="str" cm="1">
+        <f t="array" ref="AR48">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Texas-Instruments-Graphing-Calculator-Renewed</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -3979,45 +4101,51 @@
         <f t="shared" ref="N49" si="8">MID(A49, FIND("https://", A49), FIND("?psc=", A49) - FIND("https://", A49) + LEN("?psc=") - 1)</f>
         <v>https://www.amazon.com/Apple-iPhone-12-64GB-Black/dp/B08PP5MSVB/ref=zg_bs_g_amazon-renewed_d_sccl_1/130-3011150-8800723?psc</v>
       </c>
-      <c r="S49" t="str" cm="1">
-        <f t="array" ref="S49">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O49" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO49" t="str" cm="1">
+        <f t="array" ref="AO49">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Apple-iPad-10-9-inch-Wi-Fi-64GB/dp/B08NPH29YG/ref=zg_bs_g_amazon-renewed_d_sccl_48/130-3011150-8800723?psc</v>
       </c>
-      <c r="T49" t="str" cm="1">
-        <f t="array" ref="T49">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP49" t="str" cm="1">
+        <f t="array" ref="AP49">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>2020 Apple iPad Air (10.9-inch, Wi-Fi, 64GB) - Space Gray (Renewed)</v>
       </c>
-      <c r="U49" t="str" cm="1">
-        <f t="array" ref="U49">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ49" t="str" cm="1">
+        <f t="array" ref="AQ49">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/71xtU-sL3aL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V49" t="str" cm="1">
-        <f t="array" ref="V49">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR49" t="str" cm="1">
+        <f t="array" ref="AR49">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Apple-iPad-10-9-inch-Wi-Fi-64GB</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44">
       <c r="A50" t="s">
         <v>136</v>
       </c>
-      <c r="S50" t="str" cm="1">
-        <f t="array" ref="S50">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O50" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO50" t="str" cm="1">
+        <f t="array" ref="AO50">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Seagate-IronWolf-Enterprise-Internal-ST18000NT001/dp/B0CRHRXYMQ/ref=zg_bs_g_amazon-renewed_d_sccl_49/130-3011150-8800723?psc</v>
       </c>
-      <c r="T50" t="str" cm="1">
-        <f t="array" ref="T50">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP50" t="str" cm="1">
+        <f t="array" ref="AP50">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Seagate IronWolf Pro, 18 TB, Enterprise NAS Internal HDD –CMR 3.5 Inch, SATA 6 Gb/s, 7,200 RPM, 256 MB Cache for RAID Network Attached Storage (Renewed)</v>
       </c>
-      <c r="U50" t="str" cm="1">
-        <f t="array" ref="U50">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ50" t="str" cm="1">
+        <f t="array" ref="AQ50">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/61iY+fXzomL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V50" t="str" cm="1">
-        <f t="array" ref="V50">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR50" t="str" cm="1">
+        <f t="array" ref="AR50">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Seagate-IronWolf-Enterprise-Internal-ST18000NT001</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -4031,24 +4159,25 @@
       <c r="K51" t="s">
         <v>145</v>
       </c>
-      <c r="S51" t="str" cm="1">
-        <f t="array" ref="S51">INDEX($N$43:$N$1000, (ROW()-ROW($S$1))*6 + 1)</f>
+      <c r="O51" s="7"/>
+      <c r="AO51" t="str" cm="1">
+        <f t="array" ref="AO51">INDEX($N$43:$N$1000, (ROW()-ROW($AO$1))*6 + 1)</f>
         <v>https://www.amazon.com/Texas-Instruments-Graphing-Calculator-Renewed/dp/B07QLJQB8P/ref=zg_bs_g_amazon-renewed_d_sccl_50/130-3011150-8800723?psc</v>
       </c>
-      <c r="T51" t="str" cm="1">
-        <f t="array" ref="T51">INDEX($N$41:$N$1000, (ROW()-ROW($T$1))*6 + 1)</f>
+      <c r="AP51" t="str" cm="1">
+        <f t="array" ref="AP51">INDEX($N$41:$N$1000, (ROW()-ROW($AP$1))*6 + 1)</f>
         <v>Texas Instruments TI-83 Plus Graphing Calculator (Renewed)</v>
       </c>
-      <c r="U51" t="str" cm="1">
-        <f t="array" ref="U51">INDEX($N$40:$N$1000, (ROW()-ROW($U$1))*6 + 1)</f>
+      <c r="AQ51" t="str" cm="1">
+        <f t="array" ref="AQ51">INDEX($N$40:$N$1000, (ROW()-ROW($AQ$1))*6 + 1)</f>
         <v>https://c.media-amazon.com/images/I/91N2PmOh3UL._AC_UL600_SR600,400_.jpg</v>
       </c>
-      <c r="V51" t="str" cm="1">
-        <f t="array" ref="V51">INDEX($N$42:$N$1000, (ROW()-ROW($V$1))*6 + 1)</f>
+      <c r="AR51" t="str" cm="1">
+        <f t="array" ref="AR51">INDEX($N$42:$N$1000, (ROW()-ROW($AR$1))*6 + 1)</f>
         <v>Texas-Instruments-Graphing-Calculator-Renewed</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -4074,7 +4203,7 @@
         <v>https://c.media-amazon.com/images/I/612kg3rGyYL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -4097,7 +4226,7 @@
         <v>Apple iPhone 11, 64GB, Black - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -4117,7 +4246,7 @@
         <v>Apple-iPhone-11-64GB-Black</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -4133,12 +4262,12 @@
         <v>https://www.amazon.com/Apple-iPhone-11-64GB-Black/dp/B07ZPKN6YR/ref=zg_bs_g_amazon-renewed_d_sccl_2/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44">
       <c r="A56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44">
       <c r="A57" t="s">
         <v>135</v>
       </c>
@@ -4152,8 +4281,9 @@
       <c r="K57" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:44">
       <c r="A58" t="s">
         <v>201</v>
       </c>
@@ -4179,7 +4309,7 @@
         <v>https://c.media-amazon.com/images/I/61xXeO6ojPL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -4202,7 +4332,7 @@
         <v>Apple iPhone 12 Mini, 64GB, Black - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -4222,7 +4352,7 @@
         <v>Apple-iPhone-12-Mini-Black</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -4238,12 +4368,12 @@
         <v>https://www.amazon.com/Apple-iPhone-12-Mini-Black/dp/B08PPDJWC8/ref=zg_bs_g_amazon-renewed_d_sccl_3/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44">
       <c r="A62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -4257,8 +4387,9 @@
       <c r="K63" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="1:44">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -4284,7 +4415,7 @@
         <v>https://c.media-amazon.com/images/I/61VuVU94RnL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>206</v>
       </c>
@@ -4307,7 +4438,7 @@
         <v>Apple iPhone 13, 128GB, Midnight - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -4327,7 +4458,7 @@
         <v>Apple-iPhone-13-128GB-Midnight</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -4343,12 +4474,12 @@
         <v>https://www.amazon.com/Apple-iPhone-13-128GB-Midnight/dp/B09LNW3CY2/ref=zg_bs_g_amazon-renewed_d_sccl_4/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -4362,8 +4493,9 @@
       <c r="K69" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -4389,7 +4521,7 @@
         <v>https://c.media-amazon.com/images/I/61TcrRQBv0L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>210</v>
       </c>
@@ -4412,7 +4544,7 @@
         <v>Apple iPhone SE (2nd Generation), US Version, 64GB, White - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -4432,7 +4564,7 @@
         <v>Apple-iPhone-SE-64GB-White</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>212</v>
       </c>
@@ -4448,12 +4580,12 @@
         <v>https://www.amazon.com/Apple-iPhone-SE-64GB-White/dp/B088NQSLGN/ref=zg_bs_g_amazon-renewed_d_sccl_5/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -4467,8 +4599,9 @@
       <c r="K75" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>213</v>
       </c>
@@ -4494,7 +4627,7 @@
         <v>https://c.media-amazon.com/images/I/61u-OaDSfQL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>214</v>
       </c>
@@ -4517,7 +4650,7 @@
         <v>Beats Studio Pro - Wireless Bluetooth Noise Cancelling Headphones - Black (Renewed)</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>215</v>
       </c>
@@ -4537,7 +4670,7 @@
         <v>Beats-Studio-Pro-Cancelling-Headphones</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>216</v>
       </c>
@@ -4553,12 +4686,12 @@
         <v>https://www.amazon.com/Beats-Studio-Pro-Cancelling-Headphones/dp/B0CGKG9NSY/ref=zg_bs_g_amazon-renewed_d_sccl_6/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>135</v>
       </c>
@@ -4572,8 +4705,9 @@
       <c r="K81" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -4599,7 +4733,7 @@
         <v>https://c.media-amazon.com/images/I/61m8rRc8RfL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -4622,7 +4756,7 @@
         <v>Apple iPad (10.2-Inch, Wi-Fi, 32GB) - Space Gray (Renewed)</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>219</v>
       </c>
@@ -4642,7 +4776,7 @@
         <v>Apple-iPad-10-2-Inch-Wi-Fi-32GB</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -4658,12 +4792,12 @@
         <v>https://www.amazon.com/Apple-iPad-10-2-Inch-Wi-Fi-32GB/dp/B08264XHCZ/ref=zg_bs_g_amazon-renewed_d_sccl_7/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -4677,8 +4811,9 @@
       <c r="K87" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -4704,7 +4839,7 @@
         <v>https://c.media-amazon.com/images/I/51ZO97Hm0EL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>222</v>
       </c>
@@ -4727,7 +4862,7 @@
         <v>Apple Watch Series 4 (GPS, 40MM) - Silver Aluminum Case with White Sport Band (Renewed)</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -4747,7 +4882,7 @@
         <v>Apple-Watch-GPS-40mm-Aluminum</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>224</v>
       </c>
@@ -4763,12 +4898,12 @@
         <v>https://www.amazon.com/Apple-Watch-GPS-40mm-Aluminum/dp/B07P6N1FKS/ref=zg_bs_g_amazon-renewed_d_sccl_8/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -4782,8 +4917,9 @@
       <c r="K93" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="7"/>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>225</v>
       </c>
@@ -4809,7 +4945,7 @@
         <v>https://c.media-amazon.com/images/I/51n-83C8HYL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>226</v>
       </c>
@@ -4832,7 +4968,7 @@
         <v>Apple iPhone 12 Pro, 128GB, Pacific Blue - Fully Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>227</v>
       </c>
@@ -4852,7 +4988,7 @@
         <v>Apple-iPhone-128GB-Pacific-Blue</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>228</v>
       </c>
@@ -4868,12 +5004,12 @@
         <v>https://www.amazon.com/Apple-iPhone-128GB-Pacific-Blue/dp/B08PMYLKVF/ref=zg_bs_g_amazon-renewed_d_sccl_9/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -4887,8 +5023,9 @@
       <c r="K99" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>229</v>
       </c>
@@ -4914,7 +5051,7 @@
         <v>https://c.media-amazon.com/images/I/717KHGCJ6eL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>230</v>
       </c>
@@ -4937,7 +5074,7 @@
         <v>Apple iPhone XR, 64GB, Black - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -4957,7 +5094,7 @@
         <v>Apple-iPhone-XR-Fully-Unlocked</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -4973,12 +5110,12 @@
         <v>https://www.amazon.com/Apple-iPhone-XR-Fully-Unlocked/dp/B07P6Y7954/ref=zg_bs_g_amazon-renewed_d_sccl_10/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>135</v>
       </c>
@@ -4992,8 +5129,9 @@
       <c r="K105" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -5019,7 +5157,7 @@
         <v>https://c.media-amazon.com/images/I/81fSoQd7nsL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>234</v>
       </c>
@@ -5042,7 +5180,7 @@
         <v>Apple AirPods Max - Space Gray (Renewed)</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>235</v>
       </c>
@@ -5062,7 +5200,7 @@
         <v>Apple-AirPods-Max-Space-Renewed</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>236</v>
       </c>
@@ -5078,12 +5216,12 @@
         <v>https://www.amazon.com/Apple-AirPods-Max-Space-Renewed/dp/B08XY48BJD/ref=zg_bs_g_amazon-renewed_d_sccl_11/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -5097,8 +5235,9 @@
       <c r="K111" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>237</v>
       </c>
@@ -5124,7 +5263,7 @@
         <v>https://c.media-amazon.com/images/I/618h-H-R+ZL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -5147,7 +5286,7 @@
         <v>Apple iPhone 14, 128GB, Midnight - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -5167,7 +5306,7 @@
         <v>Apple-iPhone-14-128GB-Midnight</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>240</v>
       </c>
@@ -5183,12 +5322,12 @@
         <v>https://www.amazon.com/Apple-iPhone-14-128GB-Midnight/dp/B0BN72FYFG/ref=zg_bs_g_amazon-renewed_d_sccl_12/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -5202,8 +5341,9 @@
       <c r="K117" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117" s="7"/>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -5229,7 +5369,7 @@
         <v>https://c.media-amazon.com/images/I/71qp5fCNp7L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -5252,7 +5392,7 @@
         <v>Apple Watch Series 5 (GPS, 44MM) - Space Gray Aluminum Case with Black Sport Band (Renewed)</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -5272,7 +5412,7 @@
         <v>Apple-Watch-GPS-44MM-Aluminum</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -5288,12 +5428,12 @@
         <v>https://www.amazon.com/Apple-Watch-GPS-44MM-Aluminum/dp/B083M8DP6X/ref=zg_bs_g_amazon-renewed_d_sccl_13/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -5307,8 +5447,9 @@
       <c r="K123" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123" s="7"/>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -5334,7 +5475,7 @@
         <v>https://c.media-amazon.com/images/I/51UtM-A3fdL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -5357,7 +5498,7 @@
         <v>Apple iPhone 13 Pro, 128GB, Graphite - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>247</v>
       </c>
@@ -5377,7 +5518,7 @@
         <v>Apple-iPhone-13-Pro-Graphite</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>248</v>
       </c>
@@ -5393,12 +5534,12 @@
         <v>https://www.amazon.com/Apple-iPhone-13-Pro-Graphite/dp/B09LP77GDL/ref=zg_bs_g_amazon-renewed_d_sccl_14/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -5412,8 +5553,9 @@
       <c r="K129" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" s="7"/>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>249</v>
       </c>
@@ -5439,7 +5581,7 @@
         <v>https://c.media-amazon.com/images/I/61g+McQpg7L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>250</v>
       </c>
@@ -5462,7 +5604,7 @@
         <v>Apple iPhone 13 Mini, 128GB, Midnight - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>251</v>
       </c>
@@ -5482,7 +5624,7 @@
         <v>Apple-iPhone-13-Mini-Midnight</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -5498,12 +5640,12 @@
         <v>https://www.amazon.com/Apple-iPhone-13-Mini-Midnight/dp/B09LKTXKXQ/ref=zg_bs_g_amazon-renewed_d_sccl_15/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -5517,8 +5659,9 @@
       <c r="K135" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>253</v>
       </c>
@@ -5544,7 +5687,7 @@
         <v>https://c.media-amazon.com/images/I/61CmrrKebAL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>254</v>
       </c>
@@ -5567,7 +5710,7 @@
         <v>Apple AirPods with Lightning Charging Case (3rd Generation) (Renewed)</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -5587,7 +5730,7 @@
         <v>Apple-AirPods-Lightning-Charging-Generation</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>256</v>
       </c>
@@ -5603,12 +5746,12 @@
         <v>https://www.amazon.com/Apple-AirPods-Lightning-Charging-Generation/dp/B0BNJNP1P6/ref=zg_bs_g_amazon-renewed_d_sccl_16/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -5622,8 +5765,9 @@
       <c r="K141" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" s="7"/>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>257</v>
       </c>
@@ -5649,7 +5793,7 @@
         <v>https://c.media-amazon.com/images/I/613Fp7fknhL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -5672,7 +5816,7 @@
         <v>Samsung Galaxy S22 Ultra 5G Unlocked - 128GB - Black (Renewed)</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>259</v>
       </c>
@@ -5692,7 +5836,7 @@
         <v>Samsung-Galaxy-S22-5G-Unlocked</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>260</v>
       </c>
@@ -5708,12 +5852,12 @@
         <v>https://www.amazon.com/Samsung-Galaxy-S22-5G-Unlocked/dp/B09VD33WHW/ref=zg_bs_g_amazon-renewed_d_sccl_17/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>135</v>
       </c>
@@ -5727,8 +5871,9 @@
       <c r="K147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" s="7"/>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>261</v>
       </c>
@@ -5754,7 +5899,7 @@
         <v>https://c.media-amazon.com/images/I/41cRwtHyROS._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>262</v>
       </c>
@@ -5777,7 +5922,7 @@
         <v>2020 Apple iPad (10.2-inch, Wi-Fi, 32GB) - Space Gray (Renewed)</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -5797,7 +5942,7 @@
         <v>Apple-iPad-10-2-inch-Wi-Fi-32GB</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>264</v>
       </c>
@@ -5813,12 +5958,12 @@
         <v>https://www.amazon.com/Apple-iPad-10-2-inch-Wi-Fi-32GB/dp/B08KWJW3DV/ref=zg_bs_g_amazon-renewed_d_sccl_18/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
         <v>135</v>
       </c>
@@ -5832,8 +5977,9 @@
       <c r="K153" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153" s="7"/>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
         <v>265</v>
       </c>
@@ -5859,7 +6005,7 @@
         <v>https://c.media-amazon.com/images/I/51dtGasJvnL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
         <v>266</v>
       </c>
@@ -5882,7 +6028,7 @@
         <v>Apple iPhone SE 3rd Gen, 64GB, Midnight - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>267</v>
       </c>
@@ -5902,7 +6048,7 @@
         <v>Apple-iPhone-SE-3rd-Midnight</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
         <v>268</v>
       </c>
@@ -5918,12 +6064,12 @@
         <v>https://www.amazon.com/Apple-iPhone-SE-3rd-Midnight/dp/B0BDY71GRG/ref=zg_bs_g_amazon-renewed_d_sccl_19/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
         <v>135</v>
       </c>
@@ -5937,8 +6083,9 @@
       <c r="K159" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159" s="7"/>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
         <v>269</v>
       </c>
@@ -5964,7 +6111,7 @@
         <v>https://c.media-amazon.com/images/I/71PHjXBbocL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
         <v>270</v>
       </c>
@@ -5987,7 +6134,7 @@
         <v>Epson EcoTank ET-2850 Wireless Color All-in-One Cartridge-Free Supertank Printer with Scan, Copy and Auto 2-Sided Printing (Renewed)</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
         <v>271</v>
       </c>
@@ -6007,7 +6154,7 @@
         <v>Epson-Wireless-Cartridge-Free-Supertank-Printing</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
         <v>272</v>
       </c>
@@ -6023,12 +6170,12 @@
         <v>https://www.amazon.com/Epson-Wireless-Cartridge-Free-Supertank-Printing/dp/B0B6Z7PLK8/ref=zg_bs_g_amazon-renewed_d_sccl_20/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
         <v>135</v>
       </c>
@@ -6042,8 +6189,9 @@
       <c r="K165" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165" s="7"/>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
         <v>273</v>
       </c>
@@ -6069,7 +6217,7 @@
         <v>https://c.media-amazon.com/images/I/51XaLitmvBL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
         <v>274</v>
       </c>
@@ -6092,7 +6240,7 @@
         <v>Meta Quest 2 - Advanced All-in-One Virtual Reality Headset - 256 GB (Renewed Premium)</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
         <v>275</v>
       </c>
@@ -6112,7 +6260,7 @@
         <v>Oculus-Quest-Advanced-All-One-2</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
         <v>276</v>
       </c>
@@ -6128,12 +6276,12 @@
         <v>https://www.amazon.com/Oculus-Quest-Advanced-All-One-2/dp/B09P4F68WT/ref=zg_bs_g_amazon-renewed_d_sccl_21/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
         <v>135</v>
       </c>
@@ -6147,8 +6295,9 @@
       <c r="K171" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171" s="7"/>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" t="s">
         <v>277</v>
       </c>
@@ -6174,7 +6323,7 @@
         <v>https://c.media-amazon.com/images/I/61SUj2aKoEL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15">
       <c r="A173" t="s">
         <v>278</v>
       </c>
@@ -6197,7 +6346,7 @@
         <v>Apple AirPods Pro (2nd Generation) (Renewed Premium)</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15">
       <c r="A174" t="s">
         <v>279</v>
       </c>
@@ -6217,7 +6366,7 @@
         <v>Apple-AirPods-Generation-Premium-White</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -6233,12 +6382,12 @@
         <v>https://www.amazon.com/Apple-AirPods-Generation-Premium-White/dp/B0BVSSZ7PY/ref=zg_bs_g_amazon-renewed_d_sccl_22/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15">
       <c r="A176" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
         <v>135</v>
       </c>
@@ -6252,8 +6401,9 @@
       <c r="K177" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177" s="7"/>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
         <v>281</v>
       </c>
@@ -6279,7 +6429,7 @@
         <v>https://c.media-amazon.com/images/I/61aeen0K1NL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
         <v>282</v>
       </c>
@@ -6302,7 +6452,7 @@
         <v>Apple iPad (2018 Model) with Wi-Fi only 32GB Apple 9.7in iPad - Space Gray (Renewed)</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
         <v>283</v>
       </c>
@@ -6322,7 +6472,7 @@
         <v>Renewed-Apple-Model-Wi-Fi-9-7in</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
         <v>284</v>
       </c>
@@ -6338,12 +6488,12 @@
         <v>https://www.amazon.com/Renewed-Apple-Model-Wi-Fi-9-7in/dp/B07D3DDJ4L/ref=zg_bs_g_amazon-renewed_d_sccl_23/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
         <v>135</v>
       </c>
@@ -6357,8 +6507,9 @@
       <c r="K183" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183" s="7"/>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" t="s">
         <v>285</v>
       </c>
@@ -6384,7 +6535,7 @@
         <v>https://c.media-amazon.com/images/I/41WKWaQnNnL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15">
       <c r="A185" t="s">
         <v>286</v>
       </c>
@@ -6407,7 +6558,7 @@
         <v>Shark UZ565H Pro Cordless Vacuum w/ Clean Sense IQ &amp; MultiFLEX Technology, PowerFins Plus Brushroll, Duster Crevice Tool &amp; Anti-Allergen Dusting Brush, Up to 40 Minute Runtime, White/Blue (Renewed)</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15">
       <c r="A186" t="s">
         <v>287</v>
       </c>
@@ -6427,7 +6578,7 @@
         <v>MultiFLEX-Technology-PowerFins-Brushroll-Anti-Allergen</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15">
       <c r="A187" t="s">
         <v>288</v>
       </c>
@@ -6443,12 +6594,12 @@
         <v>https://www.amazon.com/MultiFLEX-Technology-PowerFins-Brushroll-Anti-Allergen/dp/B0BR66G6TM/ref=zg_bs_g_amazon-renewed_d_sccl_24/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15">
       <c r="A188" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15">
       <c r="A189" t="s">
         <v>135</v>
       </c>
@@ -6462,8 +6613,9 @@
       <c r="K189" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189" s="7"/>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" t="s">
         <v>289</v>
       </c>
@@ -6489,7 +6641,7 @@
         <v>https://c.media-amazon.com/images/I/41XjE57VLvL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15">
       <c r="A191" t="s">
         <v>290</v>
       </c>
@@ -6512,7 +6664,7 @@
         <v>Apple AirPods 2 with Charging Case - White (Renewed)</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15">
       <c r="A192" t="s">
         <v>291</v>
       </c>
@@ -6532,7 +6684,7 @@
         <v>Apple-AirPods-Charging-Case-Renewed</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
         <v>292</v>
       </c>
@@ -6548,12 +6700,12 @@
         <v>https://www.amazon.com/Apple-AirPods-Charging-Case-Renewed/dp/B07SKLLYTW/ref=zg_bs_g_amazon-renewed_d_sccl_25/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
         <v>135</v>
       </c>
@@ -6567,8 +6719,9 @@
       <c r="K195" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O195" s="7"/>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
         <v>293</v>
       </c>
@@ -6594,7 +6747,7 @@
         <v>https://c.media-amazon.com/images/I/7142BRGxr9L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
         <v>294</v>
       </c>
@@ -6617,7 +6770,7 @@
         <v>Apple Watch Series 9 45mm (GPS + Cellular) Aluminum Black with Medium/Large Black Sport Band</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>295</v>
       </c>
@@ -6637,7 +6790,7 @@
         <v>Apple-Watch-Cellular-Aluminum-Medium</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
         <v>296</v>
       </c>
@@ -6653,12 +6806,12 @@
         <v>https://www.amazon.com/Apple-Watch-Cellular-Aluminum-Medium/dp/B0CTD9B3HB/ref=zg_bs_g_amazon-renewed_d_sccl_26/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
         <v>135</v>
       </c>
@@ -6672,8 +6825,9 @@
       <c r="K201" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201" s="7"/>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" t="s">
         <v>297</v>
       </c>
@@ -6699,7 +6853,7 @@
         <v>https://c.media-amazon.com/images/I/51iJx7YWDOL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15">
       <c r="A203" t="s">
         <v>298</v>
       </c>
@@ -6722,7 +6876,7 @@
         <v>Apple iPhone 14 Pro Max, 256GB, Deep Purple - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15">
       <c r="A204" t="s">
         <v>299</v>
       </c>
@@ -6742,7 +6896,7 @@
         <v>Apple-iPhone-256GB-Deep-Purple</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15">
       <c r="A205" t="s">
         <v>300</v>
       </c>
@@ -6758,12 +6912,12 @@
         <v>https://www.amazon.com/Apple-iPhone-256GB-Deep-Purple/dp/B0BN92S2ZZ/ref=zg_bs_g_amazon-renewed_d_sccl_27/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15">
       <c r="A206" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15">
       <c r="A207" t="s">
         <v>135</v>
       </c>
@@ -6777,8 +6931,9 @@
       <c r="K207" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O207" s="7"/>
+    </row>
+    <row r="208" spans="1:15">
       <c r="A208" t="s">
         <v>301</v>
       </c>
@@ -6804,7 +6959,7 @@
         <v>https://c.media-amazon.com/images/I/61jYjeuNUnL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15">
       <c r="A209" t="s">
         <v>302</v>
       </c>
@@ -6827,7 +6982,7 @@
         <v>Samsung Galaxy S21 5G, US Version, 128GB, Phantom Gray - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15">
       <c r="A210" t="s">
         <v>303</v>
       </c>
@@ -6847,7 +7002,7 @@
         <v>Samsung-Galaxy-S21-5G-Version</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15">
       <c r="A211" t="s">
         <v>304</v>
       </c>
@@ -6863,12 +7018,12 @@
         <v>https://www.amazon.com/Samsung-Galaxy-S21-5G-Version/dp/B08VLMQ3KS/ref=zg_bs_g_amazon-renewed_d_sccl_28/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15">
       <c r="A212" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15">
       <c r="A213" t="s">
         <v>135</v>
       </c>
@@ -6882,8 +7037,9 @@
       <c r="K213" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213" s="7"/>
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" t="s">
         <v>305</v>
       </c>
@@ -6909,7 +7065,7 @@
         <v>https://c.media-amazon.com/images/I/51bE-UlxtMS._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15">
       <c r="A215" t="s">
         <v>306</v>
       </c>
@@ -6932,7 +7088,7 @@
         <v>DualSense Wireless Controller (Renewed)</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15">
       <c r="A216" t="s">
         <v>307</v>
       </c>
@@ -6952,7 +7108,7 @@
         <v>Playstation-DualSense-Wireless-Controller-Renewed-5</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15">
       <c r="A217" t="s">
         <v>308</v>
       </c>
@@ -6968,12 +7124,12 @@
         <v>https://www.amazon.com/Playstation-DualSense-Wireless-Controller-Renewed-5/dp/B092LJJYDQ/ref=zg_bs_g_amazon-renewed_d_sccl_29/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15">
       <c r="A218" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15">
       <c r="A219" t="s">
         <v>135</v>
       </c>
@@ -6987,8 +7143,9 @@
       <c r="K219" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219" s="7"/>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" t="s">
         <v>309</v>
       </c>
@@ -7014,7 +7171,7 @@
         <v>https://c.media-amazon.com/images/I/61FVIijQp2L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15">
       <c r="A221" t="s">
         <v>310</v>
       </c>
@@ -7037,7 +7194,7 @@
         <v>Dell Optiplex 7050 SFF Desktop PC Intel i7-7700 4-Cores 3.60GHz 32GB DDR4 1TB SSD WiFi BT HDMI Duel Monitor Support Windows 10 Pro Excellent Condition(Renewed)</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15">
       <c r="A222" t="s">
         <v>311</v>
       </c>
@@ -7057,7 +7214,7 @@
         <v>Dell-Optiplex-Desktop-Excellent-Condition</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15">
       <c r="A223" t="s">
         <v>312</v>
       </c>
@@ -7073,12 +7230,12 @@
         <v>https://www.amazon.com/Dell-Optiplex-Desktop-Excellent-Condition/dp/B08X1KKVCZ/ref=zg_bs_g_amazon-renewed_d_sccl_30/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15">
       <c r="A224" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15">
       <c r="A225" t="s">
         <v>135</v>
       </c>
@@ -7092,8 +7249,9 @@
       <c r="K225" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225" s="7"/>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" t="s">
         <v>313</v>
       </c>
@@ -7119,7 +7277,7 @@
         <v>https://c.media-amazon.com/images/I/5111xZtj59L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15">
       <c r="A227" t="s">
         <v>314</v>
       </c>
@@ -7142,7 +7300,7 @@
         <v>Apple AirPods Pro Wireless Earbuds with MagSafe Charging Case (Renewed)</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15">
       <c r="A228" t="s">
         <v>315</v>
       </c>
@@ -7162,7 +7320,7 @@
         <v>Apple-AirPods-Wireless-Earbuds-Charging</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15">
       <c r="A229" t="s">
         <v>316</v>
       </c>
@@ -7178,12 +7336,12 @@
         <v>https://www.amazon.com/Apple-AirPods-Wireless-Earbuds-Charging/dp/B0B844T634/ref=zg_bs_g_amazon-renewed_d_sccl_31/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15">
       <c r="A230" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15">
       <c r="A231" t="s">
         <v>135</v>
       </c>
@@ -7197,8 +7355,9 @@
       <c r="K231" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231" s="7"/>
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" t="s">
         <v>317</v>
       </c>
@@ -7224,7 +7383,7 @@
         <v>https://c.media-amazon.com/images/I/71imPv3mtFL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15">
       <c r="A233" t="s">
         <v>318</v>
       </c>
@@ -7247,7 +7406,7 @@
         <v>Dell Chromebook 11 3100 11.6\" Chromebook - 1366 x 768 - Celeron N4020-4 GB RAM - 16 GB Flash Memory - Chrome OS - Intel HD Graphics - English (US) Keyboard - Bluetooth (Renewed)</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15">
       <c r="A234" t="s">
         <v>319</v>
       </c>
@@ -7267,7 +7426,7 @@
         <v>Dell-Chromebook-3100-11-6-Bluetooth</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15">
       <c r="A235" t="s">
         <v>320</v>
       </c>
@@ -7283,12 +7442,12 @@
         <v>https://www.amazon.com/Dell-Chromebook-3100-11-6-Bluetooth/dp/B08SHN3TZP/ref=zg_bs_g_amazon-renewed_d_sccl_32/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15">
       <c r="A236" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15">
       <c r="A237" t="s">
         <v>135</v>
       </c>
@@ -7302,8 +7461,9 @@
       <c r="K237" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237" s="7"/>
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" t="s">
         <v>321</v>
       </c>
@@ -7329,7 +7489,7 @@
         <v>https://c.media-amazon.com/images/I/81LmL94PUvS._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15">
       <c r="A239" t="s">
         <v>322</v>
       </c>
@@ -7352,7 +7512,7 @@
         <v>Apple iPhone 11 Pro, US Version, 256GB, Space Gray - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15">
       <c r="A240" t="s">
         <v>323</v>
       </c>
@@ -7372,7 +7532,7 @@
         <v>Apple-iPhone-256GB-Unlocked-Renewed</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15">
       <c r="A241" t="s">
         <v>324</v>
       </c>
@@ -7388,12 +7548,12 @@
         <v>https://www.amazon.com/Apple-iPhone-256GB-Unlocked-Renewed/dp/B07ZQRL9XY/ref=zg_bs_g_amazon-renewed_d_sccl_33/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15">
       <c r="A242" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15">
       <c r="A243" t="s">
         <v>135</v>
       </c>
@@ -7407,8 +7567,9 @@
       <c r="K243" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243" s="7"/>
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" t="s">
         <v>325</v>
       </c>
@@ -7434,7 +7595,7 @@
         <v>https://c.media-amazon.com/images/I/51NV+STh2IL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15">
       <c r="A245" t="s">
         <v>326</v>
       </c>
@@ -7457,7 +7618,7 @@
         <v>Apple Watch Series 7 GPS + Cellular, 45mm Midnight Aluminum Case with Midnight Sport Band - Regular (Renewed)</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15">
       <c r="A246" t="s">
         <v>327</v>
       </c>
@@ -7477,7 +7638,7 @@
         <v>Apple-Watch-Cellular-Midnight-Aluminum</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15">
       <c r="A247" t="s">
         <v>328</v>
       </c>
@@ -7493,12 +7654,12 @@
         <v>https://www.amazon.com/Apple-Watch-Cellular-Midnight-Aluminum/dp/B09PQ7C8Z3/ref=zg_bs_g_amazon-renewed_d_sccl_34/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15">
       <c r="A248" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15">
       <c r="A249" t="s">
         <v>135</v>
       </c>
@@ -7512,8 +7673,9 @@
       <c r="K249" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249" s="7"/>
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" t="s">
         <v>329</v>
       </c>
@@ -7539,7 +7701,7 @@
         <v>https://c.media-amazon.com/images/I/51UxMEXCUbL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15">
       <c r="A251" t="s">
         <v>330</v>
       </c>
@@ -7562,7 +7724,7 @@
         <v>Beats Powerbeats Pro Totally Wireless &amp; High-Performance Bluetooth Earphones - Navy (Renewed)</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15">
       <c r="A252" t="s">
         <v>331</v>
       </c>
@@ -7582,7 +7744,7 @@
         <v>Powerbeats-Wireless-High-Performance-Bluetooth-Earphones</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15">
       <c r="A253" t="s">
         <v>332</v>
       </c>
@@ -7598,12 +7760,12 @@
         <v>https://www.amazon.com/Powerbeats-Wireless-High-Performance-Bluetooth-Earphones/dp/B084B1HC6T/ref=zg_bs_g_amazon-renewed_d_sccl_35/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15">
       <c r="A254" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15">
       <c r="A255" t="s">
         <v>135</v>
       </c>
@@ -7617,8 +7779,9 @@
       <c r="K255" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255" s="7"/>
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" t="s">
         <v>333</v>
       </c>
@@ -7644,7 +7807,7 @@
         <v>https://c.media-amazon.com/images/I/61dlAm9BpqL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15">
       <c r="A257" t="s">
         <v>334</v>
       </c>
@@ -7667,7 +7830,7 @@
         <v>Samsung Galaxy S21 Ultra 5G, US Version, 128GB, Phantom Black - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15">
       <c r="A258" t="s">
         <v>335</v>
       </c>
@@ -7687,7 +7850,7 @@
         <v>Galaxy-S21-Ultra-5G-Smartphone</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15">
       <c r="A259" t="s">
         <v>336</v>
       </c>
@@ -7703,12 +7866,12 @@
         <v>https://www.amazon.com/Galaxy-S21-Ultra-5G-Smartphone/dp/B096T6Y623/ref=zg_bs_g_amazon-renewed_d_sccl_36/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15">
       <c r="A260" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15">
       <c r="A261" t="s">
         <v>135</v>
       </c>
@@ -7722,8 +7885,9 @@
       <c r="K261" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O261" s="7"/>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" t="s">
         <v>337</v>
       </c>
@@ -7749,7 +7913,7 @@
         <v>https://c.media-amazon.com/images/I/51PtFHUPjBL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15">
       <c r="A263" t="s">
         <v>338</v>
       </c>
@@ -7772,7 +7936,7 @@
         <v>Apple iPhone 15, 128GB, Black - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15">
       <c r="A264" t="s">
         <v>339</v>
       </c>
@@ -7792,7 +7956,7 @@
         <v>Apple-iPhone-15-128GB-Black</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15">
       <c r="A265" t="s">
         <v>340</v>
       </c>
@@ -7808,12 +7972,12 @@
         <v>https://www.amazon.com/Apple-iPhone-15-128GB-Black/dp/B0CMPMY9ZZ/ref=zg_bs_g_amazon-renewed_d_sccl_37/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15">
       <c r="A266" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15">
       <c r="A267" t="s">
         <v>135</v>
       </c>
@@ -7827,8 +7991,9 @@
       <c r="K267" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O267" s="7"/>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" t="s">
         <v>341</v>
       </c>
@@ -7854,7 +8019,7 @@
         <v>https://c.media-amazon.com/images/I/61kfOWlQLsL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15">
       <c r="A269" t="s">
         <v>342</v>
       </c>
@@ -7877,7 +8042,7 @@
         <v>Samsung Galaxy S22 Smartphone, Factory Unlocked Android Cell Phone, 128GB, 8K Camera &amp; Video, Brightest Display, Long Battery Life, Fast 4nm Processor, US Version, Phantom Black (Renewed)</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15">
       <c r="A270" t="s">
         <v>343</v>
       </c>
@@ -7897,7 +8062,7 @@
         <v>Samsung-Smartphone-Unlocked-Brightest-Processor</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15">
       <c r="A271" t="s">
         <v>344</v>
       </c>
@@ -7913,12 +8078,12 @@
         <v>https://www.amazon.com/Samsung-Smartphone-Unlocked-Brightest-Processor/dp/B09V5LDZQ4/ref=zg_bs_g_amazon-renewed_d_sccl_38/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15">
       <c r="A272" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15">
       <c r="A273" t="s">
         <v>135</v>
       </c>
@@ -7932,8 +8097,9 @@
       <c r="K273" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O273" s="7"/>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" t="s">
         <v>345</v>
       </c>
@@ -7959,7 +8125,7 @@
         <v>https://c.media-amazon.com/images/I/518bzP8VW1L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15">
       <c r="A275" t="s">
         <v>346</v>
       </c>
@@ -7982,7 +8148,7 @@
         <v>Apple iPhone 14 Pro, 256GB, Deep Purple - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -8002,7 +8168,7 @@
         <v>Apple-iPhone-256GB-Deep-Purple</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15">
       <c r="A277" t="s">
         <v>347</v>
       </c>
@@ -8018,12 +8184,12 @@
         <v>https://www.amazon.com/Apple-iPhone-256GB-Deep-Purple/dp/B0BN91GD3J/ref=zg_bs_g_amazon-renewed_d_sccl_39/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15">
       <c r="A278" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15">
       <c r="A279" t="s">
         <v>135</v>
       </c>
@@ -8037,8 +8203,9 @@
       <c r="K279" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O279" s="7"/>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" t="s">
         <v>348</v>
       </c>
@@ -8064,7 +8231,7 @@
         <v>https://c.media-amazon.com/images/I/61G9RdA0EQL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15">
       <c r="A281" t="s">
         <v>349</v>
       </c>
@@ -8087,7 +8254,7 @@
         <v>Samsung Galaxy A14 5G A Series, Factory Unlocked, 64GB, US Version, Black (Renewed)</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15">
       <c r="A282" t="s">
         <v>350</v>
       </c>
@@ -8107,7 +8274,7 @@
         <v>SAMSUNG-Factory-Unlocked-Android-Smartphone</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15">
       <c r="A283" t="s">
         <v>351</v>
       </c>
@@ -8123,12 +8290,12 @@
         <v>https://www.amazon.com/SAMSUNG-Factory-Unlocked-Android-Smartphone/dp/B0C1Q3MVBP/ref=zg_bs_g_amazon-renewed_d_sccl_40/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15">
       <c r="A284" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15">
       <c r="A285" t="s">
         <v>135</v>
       </c>
@@ -8142,8 +8309,9 @@
       <c r="K285" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O285" s="7"/>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" t="s">
         <v>352</v>
       </c>
@@ -8169,7 +8337,7 @@
         <v>https://c.media-amazon.com/images/I/61a2t+ZS7cL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15">
       <c r="A287" t="s">
         <v>353</v>
       </c>
@@ -8192,7 +8360,7 @@
         <v>Apple iPhone 14 Plus, 128GB, Purple - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15">
       <c r="A288" t="s">
         <v>354</v>
       </c>
@@ -8212,7 +8380,7 @@
         <v>Apple-iPhone-Plus-128GB-Purple</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15">
       <c r="A289" t="s">
         <v>355</v>
       </c>
@@ -8228,12 +8396,12 @@
         <v>https://www.amazon.com/Apple-iPhone-Plus-128GB-Purple/dp/B0BN9RKQL7/ref=zg_bs_g_amazon-renewed_d_sccl_41/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15">
       <c r="A290" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15">
       <c r="A291" t="s">
         <v>135</v>
       </c>
@@ -8247,8 +8415,9 @@
       <c r="K291" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O291" s="7"/>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" t="s">
         <v>356</v>
       </c>
@@ -8274,7 +8443,7 @@
         <v>https://c.media-amazon.com/images/I/71FuI8YvCNL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15">
       <c r="A293" t="s">
         <v>357</v>
       </c>
@@ -8297,7 +8466,7 @@
         <v>Apple iPhone 12 Pro Max, 128GB, Pacific Blue - Fully Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15">
       <c r="A294" t="s">
         <v>227</v>
       </c>
@@ -8317,7 +8486,7 @@
         <v>Apple-iPhone-128GB-Pacific-Blue</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15">
       <c r="A295" t="s">
         <v>358</v>
       </c>
@@ -8333,12 +8502,12 @@
         <v>https://www.amazon.com/Apple-iPhone-128GB-Pacific-Blue/dp/B08PMP778K/ref=zg_bs_g_amazon-renewed_d_sccl_42/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15">
       <c r="A296" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15">
       <c r="A297" t="s">
         <v>135</v>
       </c>
@@ -8352,8 +8521,9 @@
       <c r="K297" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297" s="7"/>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -8379,7 +8549,7 @@
         <v>https://c.media-amazon.com/images/I/51IRxly2xcL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15">
       <c r="A299" t="s">
         <v>360</v>
       </c>
@@ -8402,7 +8572,7 @@
         <v>Samsung Galaxy S20 FE 5G, 128GB, Cloud Navy - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15">
       <c r="A300" t="s">
         <v>361</v>
       </c>
@@ -8422,7 +8592,7 @@
         <v>Samsung-Galaxy-S20-FE-128GB</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15">
       <c r="A301" t="s">
         <v>362</v>
       </c>
@@ -8438,12 +8608,12 @@
         <v>https://www.amazon.com/Samsung-Galaxy-S20-FE-128GB/dp/B08L34JQ9C/ref=zg_bs_g_amazon-renewed_d_sccl_43/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15">
       <c r="A302" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15">
       <c r="A303" t="s">
         <v>135</v>
       </c>
@@ -8457,8 +8627,9 @@
       <c r="K303" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O303" s="7"/>
+    </row>
+    <row r="304" spans="1:15">
       <c r="A304" t="s">
         <v>363</v>
       </c>
@@ -8484,7 +8655,7 @@
         <v>https://c.media-amazon.com/images/I/61IX+1qw35L._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15">
       <c r="A305" t="s">
         <v>364</v>
       </c>
@@ -8507,7 +8678,7 @@
         <v>SAMSUNG Galaxy A13 LTE, Factory Unlocked Smartphone, Android Cell Phone, Water Resistant, 50MP Camera, US Version, 32GB, Black (Renewed)</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15">
       <c r="A306" t="s">
         <v>365</v>
       </c>
@@ -8527,7 +8698,7 @@
         <v>SAMSUNG-Galaxy-A13-LTE-32GB</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15">
       <c r="A307" t="s">
         <v>366</v>
       </c>
@@ -8543,12 +8714,12 @@
         <v>https://www.amazon.com/SAMSUNG-Galaxy-A13-LTE-32GB/dp/B09Z8P34NM/ref=zg_bs_g_amazon-renewed_d_sccl_44/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15">
       <c r="A308" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15">
       <c r="A309" t="s">
         <v>135</v>
       </c>
@@ -8562,8 +8733,9 @@
       <c r="K309" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O309" s="7"/>
+    </row>
+    <row r="310" spans="1:15">
       <c r="A310" t="s">
         <v>367</v>
       </c>
@@ -8589,7 +8761,7 @@
         <v>https://c.media-amazon.com/images/I/51bRSWrEc7S._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15">
       <c r="A311" t="s">
         <v>368</v>
       </c>
@@ -8612,7 +8784,7 @@
         <v>Beats Studio Buds Totally Wireless Noise Cancelling Earphones - Black (Renewed)</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15">
       <c r="A312" t="s">
         <v>369</v>
       </c>
@@ -8632,7 +8804,7 @@
         <v>Beats-Studio-Buds-Cancelling-Earphones</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15">
       <c r="A313" t="s">
         <v>370</v>
       </c>
@@ -8648,12 +8820,12 @@
         <v>https://www.amazon.com/Beats-Studio-Buds-Cancelling-Earphones/dp/B098M47N55/ref=zg_bs_g_amazon-renewed_d_sccl_45/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15">
       <c r="A314" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15">
       <c r="A315" t="s">
         <v>135</v>
       </c>
@@ -8667,8 +8839,9 @@
       <c r="K315" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O315" s="7"/>
+    </row>
+    <row r="316" spans="1:15">
       <c r="A316" t="s">
         <v>371</v>
       </c>
@@ -8694,7 +8867,7 @@
         <v>https://c.media-amazon.com/images/I/71yIGykJFNS._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15">
       <c r="A317" t="s">
         <v>372</v>
       </c>
@@ -8717,7 +8890,7 @@
         <v>Apple iPhone 11 Pro Max, US Version, 64GB, Midnight Green - Unlocked (Renewed)</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15">
       <c r="A318" t="s">
         <v>373</v>
       </c>
@@ -8737,7 +8910,7 @@
         <v>Apple-iPhone-64GB-Midnight-Green</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15">
       <c r="A319" t="s">
         <v>374</v>
       </c>
@@ -8753,12 +8926,12 @@
         <v>https://www.amazon.com/Apple-iPhone-64GB-Midnight-Green/dp/B07ZQS6LPZ/ref=zg_bs_g_amazon-renewed_d_sccl_46/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15">
       <c r="A320" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15">
       <c r="A321" t="s">
         <v>135</v>
       </c>
@@ -8772,8 +8945,9 @@
       <c r="K321" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O321" s="7"/>
+    </row>
+    <row r="322" spans="1:15">
       <c r="A322" t="s">
         <v>375</v>
       </c>
@@ -8799,7 +8973,7 @@
         <v>https://c.media-amazon.com/images/I/41ey+reh0jL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15">
       <c r="A323" t="s">
         <v>376</v>
       </c>
@@ -8822,7 +8996,7 @@
         <v>Texas Instruments TI-84 Plus Silver Edition Graphing Calculator, Silver (Renewed)</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15">
       <c r="A324" t="s">
         <v>377</v>
       </c>
@@ -8842,7 +9016,7 @@
         <v>Texas-Instruments-Graphing-Calculator-Renewed</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15">
       <c r="A325" t="s">
         <v>378</v>
       </c>
@@ -8858,12 +9032,12 @@
         <v>https://www.amazon.com/Texas-Instruments-Graphing-Calculator-Renewed/dp/B07VYV87V1/ref=zg_bs_g_amazon-renewed_d_sccl_47/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15">
       <c r="A326" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15">
       <c r="A327" t="s">
         <v>135</v>
       </c>
@@ -8877,8 +9051,9 @@
       <c r="K327" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O327" s="7"/>
+    </row>
+    <row r="328" spans="1:15">
       <c r="A328" t="s">
         <v>379</v>
       </c>
@@ -8904,7 +9079,7 @@
         <v>https://c.media-amazon.com/images/I/71xtU-sL3aL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15">
       <c r="A329" t="s">
         <v>380</v>
       </c>
@@ -8927,7 +9102,7 @@
         <v>2020 Apple iPad Air (10.9-inch, Wi-Fi, 64GB) - Space Gray (Renewed)</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15">
       <c r="A330" t="s">
         <v>381</v>
       </c>
@@ -8947,7 +9122,7 @@
         <v>Apple-iPad-10-9-inch-Wi-Fi-64GB</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15">
       <c r="A331" t="s">
         <v>382</v>
       </c>
@@ -8963,12 +9138,12 @@
         <v>https://www.amazon.com/Apple-iPad-10-9-inch-Wi-Fi-64GB/dp/B08NPH29YG/ref=zg_bs_g_amazon-renewed_d_sccl_48/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15">
       <c r="A332" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15">
       <c r="A333" t="s">
         <v>135</v>
       </c>
@@ -8982,8 +9157,9 @@
       <c r="K333" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O333" s="7"/>
+    </row>
+    <row r="334" spans="1:15">
       <c r="A334" t="s">
         <v>383</v>
       </c>
@@ -9009,7 +9185,7 @@
         <v>https://c.media-amazon.com/images/I/61iY+fXzomL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15">
       <c r="A335" t="s">
         <v>384</v>
       </c>
@@ -9032,7 +9208,7 @@
         <v>Seagate IronWolf Pro, 18 TB, Enterprise NAS Internal HDD –CMR 3.5 Inch, SATA 6 Gb/s, 7,200 RPM, 256 MB Cache for RAID Network Attached Storage (Renewed)</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15">
       <c r="A336" t="s">
         <v>385</v>
       </c>
@@ -9052,7 +9228,7 @@
         <v>Seagate-IronWolf-Enterprise-Internal-ST18000NT001</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15">
       <c r="A337" t="s">
         <v>386</v>
       </c>
@@ -9068,12 +9244,12 @@
         <v>https://www.amazon.com/Seagate-IronWolf-Enterprise-Internal-ST18000NT001/dp/B0CRHRXYMQ/ref=zg_bs_g_amazon-renewed_d_sccl_49/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15">
       <c r="A338" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15">
       <c r="A339" t="s">
         <v>135</v>
       </c>
@@ -9087,8 +9263,9 @@
       <c r="K339" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339" s="7"/>
+    </row>
+    <row r="340" spans="1:15">
       <c r="A340" t="s">
         <v>387</v>
       </c>
@@ -9114,7 +9291,7 @@
         <v>https://c.media-amazon.com/images/I/91N2PmOh3UL._AC_UL600_SR600,400_.jpg</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15">
       <c r="A341" t="s">
         <v>388</v>
       </c>
@@ -9137,7 +9314,7 @@
         <v>Texas Instruments TI-83 Plus Graphing Calculator (Renewed)</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15">
       <c r="A342" t="s">
         <v>377</v>
       </c>
@@ -9157,7 +9334,7 @@
         <v>Texas-Instruments-Graphing-Calculator-Renewed</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15">
       <c r="A343" t="s">
         <v>389</v>
       </c>
@@ -9173,15 +9350,16 @@
         <v>https://www.amazon.com/Texas-Instruments-Graphing-Calculator-Renewed/dp/B07QLJQB8P/ref=zg_bs_g_amazon-renewed_d_sccl_50/130-3011150-8800723?psc</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15">
       <c r="A344" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15">
       <c r="A345" t="s">
         <v>138</v>
       </c>
+      <c r="O345" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9193,16 +9371,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B12730-8117-7246-BDE6-D346EE7930B7}">
   <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>589</v>
       </c>
@@ -9219,7 +9397,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>590</v>
       </c>
@@ -9236,7 +9414,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>591</v>
       </c>
@@ -9253,7 +9431,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>592</v>
       </c>
@@ -9270,7 +9448,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>593</v>
       </c>
@@ -9287,7 +9465,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>594</v>
       </c>
@@ -9304,7 +9482,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>595</v>
       </c>
@@ -9321,7 +9499,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>596</v>
       </c>
@@ -9338,7 +9516,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>597</v>
       </c>
@@ -9355,7 +9533,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>598</v>
       </c>
@@ -9372,7 +9550,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>599</v>
       </c>
@@ -9389,7 +9567,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>600</v>
       </c>
@@ -9406,7 +9584,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>601</v>
       </c>
@@ -9423,7 +9601,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>602</v>
       </c>
@@ -9440,7 +9618,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>603</v>
       </c>
@@ -9457,7 +9635,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>604</v>
       </c>
@@ -9474,7 +9652,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>605</v>
       </c>
@@ -9491,7 +9669,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>606</v>
       </c>
@@ -9508,7 +9686,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>607</v>
       </c>
@@ -9525,7 +9703,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>608</v>
       </c>
@@ -9542,7 +9720,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>609</v>
       </c>
@@ -9559,7 +9737,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>610</v>
       </c>
@@ -9576,7 +9754,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>611</v>
       </c>
@@ -9593,7 +9771,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>612</v>
       </c>
@@ -9610,7 +9788,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>613</v>
       </c>
@@ -9627,7 +9805,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>614</v>
       </c>
@@ -9644,7 +9822,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>615</v>
       </c>
@@ -9661,7 +9839,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>616</v>
       </c>
@@ -9678,7 +9856,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>617</v>
       </c>
@@ -9695,7 +9873,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>618</v>
       </c>
@@ -9712,7 +9890,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>619</v>
       </c>
@@ -9729,7 +9907,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>620</v>
       </c>
@@ -9746,7 +9924,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>621</v>
       </c>
@@ -9763,7 +9941,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>622</v>
       </c>
@@ -9780,7 +9958,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>623</v>
       </c>
@@ -9797,7 +9975,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>624</v>
       </c>
@@ -9814,7 +9992,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>625</v>
       </c>
@@ -9831,7 +10009,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>626</v>
       </c>
@@ -9848,7 +10026,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>627</v>
       </c>
@@ -9865,7 +10043,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>628</v>
       </c>
@@ -9882,7 +10060,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>629</v>
       </c>
@@ -9899,7 +10077,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>630</v>
       </c>
@@ -9916,7 +10094,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>631</v>
       </c>
@@ -9933,7 +10111,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>632</v>
       </c>
@@ -9950,7 +10128,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>633</v>
       </c>
@@ -9967,7 +10145,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>634</v>
       </c>
@@ -9984,7 +10162,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>635</v>
       </c>
@@ -10001,7 +10179,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>636</v>
       </c>
@@ -10018,7 +10196,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>637</v>
       </c>
@@ -10035,7 +10213,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>588</v>
       </c>
@@ -10061,16 +10239,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFE3EAA-E3C0-9F4D-82A6-53F8C720FF2B}">
   <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>589</v>
       </c>
@@ -10087,7 +10265,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>590</v>
       </c>
@@ -10104,7 +10282,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>591</v>
       </c>
@@ -10121,7 +10299,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>592</v>
       </c>
@@ -10138,7 +10316,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>593</v>
       </c>
@@ -10155,7 +10333,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>594</v>
       </c>
@@ -10172,7 +10350,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>595</v>
       </c>
@@ -10189,7 +10367,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>596</v>
       </c>
@@ -10206,7 +10384,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>597</v>
       </c>
@@ -10223,7 +10401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>598</v>
       </c>
@@ -10240,7 +10418,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>599</v>
       </c>
@@ -10257,7 +10435,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>600</v>
       </c>
@@ -10274,7 +10452,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>601</v>
       </c>
@@ -10291,7 +10469,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>602</v>
       </c>
@@ -10308,7 +10486,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>603</v>
       </c>
@@ -10325,7 +10503,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>604</v>
       </c>
@@ -10342,7 +10520,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>605</v>
       </c>
@@ -10359,7 +10537,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>606</v>
       </c>
@@ -10376,7 +10554,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>607</v>
       </c>
@@ -10393,7 +10571,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>608</v>
       </c>
@@ -10410,7 +10588,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>609</v>
       </c>
@@ -10427,7 +10605,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>610</v>
       </c>
@@ -10444,7 +10622,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>611</v>
       </c>
@@ -10461,7 +10639,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>612</v>
       </c>
@@ -10478,7 +10656,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>613</v>
       </c>
@@ -10495,7 +10673,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>614</v>
       </c>
@@ -10512,7 +10690,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>615</v>
       </c>
@@ -10529,7 +10707,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>616</v>
       </c>
@@ -10546,7 +10724,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>617</v>
       </c>
@@ -10563,7 +10741,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>618</v>
       </c>
@@ -10580,7 +10758,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>619</v>
       </c>
@@ -10597,7 +10775,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>620</v>
       </c>
@@ -10614,7 +10792,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>621</v>
       </c>
@@ -10631,7 +10809,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>622</v>
       </c>
@@ -10648,7 +10826,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>623</v>
       </c>
@@ -10665,7 +10843,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>624</v>
       </c>
@@ -10682,7 +10860,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>625</v>
       </c>
@@ -10699,7 +10877,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>626</v>
       </c>
@@ -10716,7 +10894,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>627</v>
       </c>
@@ -10733,7 +10911,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>628</v>
       </c>
@@ -10750,7 +10928,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>629</v>
       </c>
@@ -10767,7 +10945,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>630</v>
       </c>
@@ -10784,7 +10962,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>631</v>
       </c>
@@ -10801,7 +10979,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>632</v>
       </c>
@@ -10818,7 +10996,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>633</v>
       </c>
@@ -10835,7 +11013,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>634</v>
       </c>
@@ -10852,7 +11030,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>635</v>
       </c>
@@ -10869,7 +11047,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>636</v>
       </c>
@@ -10886,7 +11064,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>637</v>
       </c>
@@ -10903,7 +11081,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>588</v>
       </c>
@@ -10927,209 +11105,530 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7067FE24-55C0-3F47-884F-312FFCA34173}">
-  <dimension ref="A6:A60"/>
+  <dimension ref="A6:C144"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="133" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="4" customFormat="1"/>
+    <row r="71" spans="1:3">
+      <c r="C71" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="C73" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
         <v>181</v>
       </c>
     </row>
@@ -11142,33 +11641,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2328181-9D8C-8046-A981-453354B63207}">
   <dimension ref="G4:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="7:10">
       <c r="G4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:10">
       <c r="G5">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:10">
       <c r="G6">
         <f>G4*G5</f>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:10">
       <c r="I10" t="s">
         <v>184</v>
       </c>
@@ -11176,7 +11675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:10">
       <c r="I11" t="s">
         <v>185</v>
       </c>
@@ -11184,7 +11683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:10">
       <c r="I12" t="s">
         <v>186</v>
       </c>
@@ -11193,7 +11692,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:10">
       <c r="I13" t="s">
         <v>187</v>
       </c>
@@ -11201,7 +11700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:10">
       <c r="I14" t="s">
         <v>188</v>
       </c>
@@ -11209,7 +11708,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:10">
       <c r="I15" t="s">
         <v>189</v>
       </c>
@@ -11217,7 +11716,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:10">
       <c r="I16" t="s">
         <v>190</v>
       </c>
@@ -11225,7 +11724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:10">
       <c r="I17" t="s">
         <v>191</v>
       </c>
@@ -11233,7 +11732,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:10">
       <c r="I18" t="s">
         <v>192</v>
       </c>
